--- a/wenjian/新资管系统.xlsx
+++ b/wenjian/新资管系统.xlsx
@@ -439,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E28" sqref="E27:E28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,6 +456,9 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
@@ -468,150 +471,139 @@
         <v>4</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>1</v>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E8" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C9" t="s">
-        <v>5</v>
-      </c>
       <c r="E9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
       <c r="E22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>28</v>
+      </c>
       <c r="E23" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E36" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E40" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E49" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="E56" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C57" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.2">
-      <c r="C62" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
         <v>31</v>
       </c>
     </row>

--- a/wenjian/新资管系统.xlsx
+++ b/wenjian/新资管系统.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="模板管理" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>新资管系统</t>
   </si>
@@ -115,13 +116,95 @@
   </si>
   <si>
     <t>资产管理</t>
+  </si>
+  <si>
+    <t>查询、上传、更新、删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户验收测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例基本属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易/功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试检查要点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格编号:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板管理/文档管理</t>
+  </si>
+  <si>
+    <t>高</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,16 +219,43 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -153,12 +263,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -439,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -452,7 +586,7 @@
     <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -465,145 +599,148 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C3" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E4" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E5" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E6" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C11" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>15</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E13" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
         <v>16</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C16" t="s">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>19</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E17" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E17" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
         <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
         <v>28</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E24" t="s">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
         <v>31</v>
       </c>
     </row>
@@ -612,4 +749,606 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="A15:Q17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="5"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="5"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="5"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="5"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+      <c r="N26" s="5"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+      <c r="N27" s="5"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+      <c r="N32" s="5"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+      <c r="N33" s="5"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+      <c r="N35" s="5"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+      <c r="N36" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:N4"/>
+    <mergeCell ref="B2:N2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C36">
+      <formula1>"模板管理/文档管理,模板管理/参数管理"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E36">
+      <formula1>"高,中,低"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K36">
+      <formula1>"未测试,通过,不通过,不适用"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wenjian/新资管系统.xlsx
+++ b/wenjian/新资管系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>新资管系统</t>
   </si>
@@ -28,9 +28,6 @@
     <t>产品管理</t>
   </si>
   <si>
-    <t>产品模板</t>
-  </si>
-  <si>
     <t>文档管理</t>
   </si>
   <si>
@@ -118,10 +115,6 @@
     <t>资产管理</t>
   </si>
   <si>
-    <t>查询、上传、更新、删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户验收测试用例</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -198,13 +191,33 @@
   </si>
   <si>
     <t>高</t>
+  </si>
+  <si>
+    <t>模板管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档的查询、上传、更新、删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品申报登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品申报登记新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品申报登记查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -240,6 +253,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -255,7 +276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -278,24 +299,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -308,6 +386,91 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="[0]!矩形1_Click" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="矩形 1">
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DF3B40-4749-4A0D-8772-77428BDC5833}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="762000" cy="257175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="0" cap="none" spc="0">
+              <a:ln w="0"/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="38100" dist="25400" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="6E747A">
+                    <a:alpha val="43000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>返回</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,179 +736,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
-    <col min="5" max="5" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="8"/>
+    </row>
+    <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E2" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+    </row>
+    <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C4" t="s">
+      <c r="D4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E5" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E6" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E7" t="s">
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C8" t="s">
+      <c r="D10" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E9" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="8" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E10" t="s">
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E11" t="s">
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C12" t="s">
+      <c r="D14" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+    </row>
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+    </row>
+    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+    </row>
+    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
+      <c r="D17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+    </row>
+    <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E16" t="s">
+      <c r="E18" s="8"/>
+      <c r="F18" s="8"/>
+    </row>
+    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C17" t="s">
+      <c r="D19" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+    </row>
+    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+    </row>
+    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E19" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8"/>
+    </row>
+    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E20" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E21" t="s">
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E22" t="s">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+    </row>
+    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C23" t="s">
+      <c r="D25" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+    </row>
+    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+      <c r="D26" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+    </row>
+    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="E25" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+    </row>
+    <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6"/>
+      <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
   </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A28"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B2:B27"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C24"/>
+    <mergeCell ref="C26:C27"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C2" location="模板管理!A1" display="模板管理"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -755,8 +1071,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="A15:Q17"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -778,557 +1094,557 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
+      <c r="B2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="5"/>
-      <c r="C6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
+      <c r="N12" s="3"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
-      <c r="N17" s="5"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
-      <c r="N18" s="5"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
-      <c r="N19" s="5"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
-      <c r="N26" s="5"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
-      <c r="N27" s="5"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
-      <c r="N28" s="5"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
-      <c r="N29" s="5"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
-      <c r="N30" s="5"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
-      <c r="N31" s="5"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
-      <c r="N33" s="5"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
-      <c r="N34" s="5"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
-      <c r="N36" s="5"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1350,5 +1666,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/wenjian/新资管系统.xlsx
+++ b/wenjian/新资管系统.xlsx
@@ -19,8 +19,108 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>最低层次模块</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在下拉框中选择测试类型，如无合适选项，可选择“其他测试”，并在备注说明测试类型</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">标题：
+简要说明该测试用例的测试重点
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>测试数据：
+根据实际使用数据进行填写，如测试时使用的账号、角色等</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">预期结果:
+说明执行测试操作后的具体预期结果，如显示或输出内容、系统保持数据、生成报表等
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实际结果：
+说明实际执行测试操作后的实际结果，如显示的具体内容，输出的具体数据、系统保存的实际数据等</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
   <si>
     <t>新资管系统</t>
   </si>
@@ -88,128 +188,261 @@
     <t>到期日调整</t>
   </si>
   <si>
+    <t>产品费率调整</t>
+  </si>
+  <si>
+    <t>预期收益型产品报价调整</t>
+  </si>
+  <si>
+    <t>产品台账</t>
+  </si>
+  <si>
+    <t>产品台账查询</t>
+  </si>
+  <si>
+    <t>分配方案</t>
+  </si>
+  <si>
+    <t>分配方案管理</t>
+  </si>
+  <si>
+    <t>分配方案配置</t>
+  </si>
+  <si>
+    <t>资产管理</t>
+  </si>
+  <si>
+    <t>用户验收测试用例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例基本属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用例编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易/功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优先级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试检查要点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试步骤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>执行日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表格编号:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板管理/文档管理</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>模板管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档的查询、上传、更新、删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品申报登记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品申报登记新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品申报登记查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期收益型产品信息新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值型产品信息新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性产品信息新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中间付息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申购赎回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分提前到期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提前到期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到期手动处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申购赎回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期收益型产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期收益型产品估值展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值型产品估值展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性产品估值展示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益测算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期收益型产品收益测算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值型产品收益测算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期收益型、净值型、结构性产品的付息计划进行维护、拆分新的付息区间、合并所选付息区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期收益型、净值型产品的开放计划进行维护、拆分或合并开放区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整产品的到期日或清盘日信息，查询或删除调整到期日的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>浮动管理费调整</t>
-  </si>
-  <si>
-    <t>产品费率调整</t>
-  </si>
-  <si>
-    <t>预期收益型产品报价调整</t>
-  </si>
-  <si>
-    <t>产品台账</t>
-  </si>
-  <si>
-    <t>产品台账查询</t>
-  </si>
-  <si>
-    <t>分配方案</t>
-  </si>
-  <si>
-    <t>分配方案管理</t>
-  </si>
-  <si>
-    <t>分配方案配置</t>
-  </si>
-  <si>
-    <t>资产管理</t>
-  </si>
-  <si>
-    <t>用户验收测试用例</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例基本属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用例编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易/功能模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优先级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试检查要点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>输入数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试步骤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预期结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮动管理费调整查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮动管理费新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮动管理费修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮动管理费删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品的托管费、销售手续费、固定管理费等计提式费用的费率信息的查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费率信息新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费率信息修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>费率信息删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询、新建、修改及撤销预期收益型产品（金额分层、期限分层、普通、周期型）的报价信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性产品报价调整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性产品的报价做查询、新建、修改、删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品的基本信息的查询、导出功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>实际结果</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>执行日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格编号:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板管理/文档管理</t>
-  </si>
-  <si>
-    <t>高</t>
-  </si>
-  <si>
-    <t>模板管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>文档的查询、上传、更新、删除</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品申报登记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品申报登记新建</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品申报登记查询</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +450,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +493,13 @@
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -341,25 +581,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -369,6 +605,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -736,10 +990,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F28"/>
+  <dimension ref="A2:F49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -749,6 +1003,7 @@
     <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -758,90 +1013,96 @@
       <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" s="8"/>
+      <c r="E2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="8"/>
+      <c r="D4" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="8" t="s">
+      <c r="C7" s="8"/>
+      <c r="D7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="E7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
+      <c r="E8" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="8" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
@@ -849,214 +1110,464 @@
       <c r="C10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="E10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
-      <c r="D11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
-      <c r="D12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
-      <c r="D13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
-      <c r="C14" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
-      <c r="D16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
-      <c r="D21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
+      <c r="D21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
-      <c r="D22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="D22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F24" s="4"/>
     </row>
     <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="4"/>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="4"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F27" s="4"/>
     </row>
     <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="6"/>
-      <c r="B28" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F36" s="4"/>
+    </row>
+    <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="8"/>
+      <c r="E37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F37" s="4"/>
+    </row>
+    <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="8"/>
+      <c r="E39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F41" s="4"/>
+    </row>
+    <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="8"/>
+      <c r="E42" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="E45" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="6"/>
+      <c r="B49" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A2:A28"/>
+  <mergeCells count="16">
+    <mergeCell ref="A2:A49"/>
     <mergeCell ref="C4:C9"/>
     <mergeCell ref="D4:D5"/>
-    <mergeCell ref="B2:B27"/>
+    <mergeCell ref="B2:B48"/>
     <mergeCell ref="C2:C3"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C24"/>
-    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C10:C25"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C45"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D10:D15"/>
+    <mergeCell ref="D16:D20"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="D40:D43"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -1068,11 +1579,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:N36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1094,557 +1605,557 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
+      <c r="B2" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B4" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B4" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1654,7 +2165,7 @@
     <mergeCell ref="B2:N2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C36">
       <formula1>"模板管理/文档管理,模板管理/参数管理"</formula1>
     </dataValidation>
@@ -1664,8 +2175,12 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K36">
       <formula1>"未测试,通过,不通过,不适用"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D36">
+      <formula1>"功能测试,用户界面测试,用户体验测试,容错性测试,其他测试"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/wenjian/新资管系统.xlsx
+++ b/wenjian/新资管系统.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="汇总" sheetId="1" r:id="rId1"/>
     <sheet name="模板管理" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -120,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="149">
   <si>
     <t>新资管系统</t>
   </si>
@@ -443,6 +444,244 @@
   </si>
   <si>
     <t>实际结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪加薪16号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物华添宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品处理模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本金保障标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益保障标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品收益率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收益区间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发行方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否每日申购赎回</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利率型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单发型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名利双收</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日日金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浮动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开放式</t>
+  </si>
+  <si>
+    <t>开放式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盆满钵盈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盆满钵盈日积月累</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盆满钵盈-保证收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盆满钵盈-日日盈人民币理财</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>盆满钵盈-A版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪加薪13号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪加薪13号固定期限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪加薪13号循环滚动版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>循环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广赢安薪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广赢安薪-B版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广赢安薪-A版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广银安富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广银安富-周增利</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封闭式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广银安富-联动共赢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联动共赢</t>
+  </si>
+  <si>
+    <t>结构性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪享事成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>薪享事成-净值型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>净值型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模块二级分类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试要点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +689,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,8 +740,38 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF002060"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,8 +784,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -539,75 +820,20 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -615,14 +841,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -990,565 +1229,585 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F49"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" customWidth="1"/>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>148</v>
+      </c>
+    </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="4"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="4" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="4" t="s">
+      <c r="A5" s="11"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="4" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="4" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="4" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="4" t="s">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="4" t="s">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="4" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="4" t="s">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="4"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="4" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="4"/>
+      <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="4" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="4"/>
+      <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7" t="s">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="4"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="6"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="4" t="s">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="4"/>
+      <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="6"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="4" t="s">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="4"/>
+      <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="4" t="s">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="6"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="4" t="s">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="4"/>
+      <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="6"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="4" t="s">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="6"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="7" t="s">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="4"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="6"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="4" t="s">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="4"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="6"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="4" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="4"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="6"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="4" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="4"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="6"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6" t="s">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="4" t="s">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="4"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="4" t="s">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="4"/>
+      <c r="F28" s="10"/>
     </row>
     <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="7" t="s">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="4"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="6"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="4" t="s">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="10"/>
     </row>
     <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="6"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="4" t="s">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
     </row>
     <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6" t="s">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="4"/>
+      <c r="F33" s="10"/>
     </row>
     <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="6"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="4" t="s">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="13" t="s">
+      <c r="E34" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="6"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="4" t="s">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="13" t="s">
+      <c r="E35" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7" t="s">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="4" t="s">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="4"/>
+      <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="4" t="s">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="4"/>
+      <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="4" t="s">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="4"/>
-    </row>
-    <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="8" t="s">
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="4"/>
+      <c r="F40" s="10"/>
     </row>
     <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="4" t="s">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="F41" s="4"/>
+      <c r="F41" s="10"/>
     </row>
     <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="4" t="s">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="4"/>
+      <c r="F42" s="10"/>
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="4" t="s">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="4"/>
-    </row>
-    <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="4" t="s">
+      <c r="F43" s="10"/>
+    </row>
+    <row r="44" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="4"/>
-    </row>
-    <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="5" t="s">
+      <c r="F44" s="10"/>
+    </row>
+    <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="14" t="s">
+      <c r="E45" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="4"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="4" t="s">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="F46" s="4"/>
+      <c r="F46" s="10"/>
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6" t="s">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="4" t="s">
+      <c r="D47" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
     </row>
     <row r="48" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="4" t="s">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
     </row>
     <row r="49" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="6"/>
-      <c r="B49" s="4" t="s">
+      <c r="A49" s="11"/>
+      <c r="B49" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1583,7 +1842,7 @@
   <dimension ref="B2:N36"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1605,21 +1864,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -1627,27 +1886,27 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-    </row>
-    <row r="5" spans="2:14" s="15" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>34</v>
       </c>
@@ -2183,4 +2442,630 @@
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B7:N27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9.25" customWidth="1"/>
+    <col min="3" max="3" width="26.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B17" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B19" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="N20" s="7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B21" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/wenjian/新资管系统.xlsx
+++ b/wenjian/新资管系统.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
@@ -121,7 +121,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="198">
   <si>
     <t>新资管系统</t>
   </si>
@@ -682,6 +682,237 @@
   </si>
   <si>
     <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档管理-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档管理-002</t>
+  </si>
+  <si>
+    <t>文档管理-003</t>
+  </si>
+  <si>
+    <t>文档管理-004</t>
+  </si>
+  <si>
+    <t>文档管理-005</t>
+  </si>
+  <si>
+    <t>文档管理-006</t>
+  </si>
+  <si>
+    <t>功能测试</t>
+  </si>
+  <si>
+    <t>文档管理-查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【文档管理】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面正常显示，默认为空结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未测试</t>
+  </si>
+  <si>
+    <t>王亚飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户界面测试</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【文档管理】
+3、不输入查询条件
+4、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹窗信息，显示“没有符合条件的记录”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【文档管理】
+3、只输入文档类型
+4、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有符合文档类型的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【文档管理】
+3、只输入文件名
+4、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示符合该文件名的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【文档管理】
+3、只输入有效状态
+4、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有符合该有效状态的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【文档管理】
+3、输入所有查询条件
+4、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示符合查询条件的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询页面显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档管理-上传（文件类型）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档管理-007</t>
+  </si>
+  <si>
+    <t>文档管理-008</t>
+  </si>
+  <si>
+    <t>文档管理-009</t>
+  </si>
+  <si>
+    <t>文档管理-010</t>
+  </si>
+  <si>
+    <t>文档管理-011</t>
+  </si>
+  <si>
+    <t>文档管理-012</t>
+  </si>
+  <si>
+    <t>文档管理-013</t>
+  </si>
+  <si>
+    <t>文档管理-014</t>
+  </si>
+  <si>
+    <t>文档管理-015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【文档管理】
+3、点击【上传】
+4、选择非.doc(x)/.xls(x)文件
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传失败，提示“上传文件类型错误”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档管理-上传保存（文件名约束）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传成功，页面显示上传文件名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【文档管理】
+3、点击【上传】
+4、选择.doc(x)/.xls(x)文件
+5、点击【保存】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【文档管理】
+3、点击【上传】
+4、选择.doc(x)/.xls(x)文件（文件名重复）
+5、点击【保存】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传失败，提示“该文件已存在”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【文档管理】
+3、点击【上传】
+4、选择.doc(x)/.xls(x)文件（文件名为空）
+5、点击【保存】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传失败，提示“文件名不能为空”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档管理-上传（审批流程）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【文档管理】
+3、点击【上传】
+4、选择.doc(x)/.xls(x)文件
+5、点击【保存】
+6、复核岗待办事项，审批通过
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询上传文件，显示查询结果，有效字段为“有效”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【文档管理】
+3、点击【上传】
+4、选择.doc(x)/.xls(x)文件
+5、点击【保存】
+6、复核岗待办事项，审批不通过
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询上传文件，显示查询结果，有效字段为“否”</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -771,7 +1002,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -793,6 +1024,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -825,20 +1062,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -851,17 +1081,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1232,7 +1489,7 @@
   <dimension ref="A1:F49"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C9"/>
+      <selection activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1246,568 +1503,568 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="9" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="7"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="10" t="s">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10" t="s">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10" t="s">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10" t="s">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10" t="s">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="7"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="11"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="7"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="11"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="10" t="s">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="7"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="10" t="s">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="7"/>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10" t="s">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10" t="s">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="7"/>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10" t="s">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10" t="s">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="10" t="s">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="10" t="s">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="10" t="s">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="10" t="s">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11" t="s">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="10" t="s">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="7"/>
     </row>
     <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="10" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="7"/>
     </row>
     <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="10" t="s">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="7"/>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11" t="s">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="10" t="s">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="7"/>
     </row>
     <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="10" t="s">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11" t="s">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="7"/>
     </row>
     <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="10" t="s">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="10"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11" t="s">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
     </row>
     <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="11"/>
-      <c r="B32" s="11"/>
-      <c r="C32" s="11"/>
-      <c r="D32" s="10" t="s">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="11"/>
-      <c r="B33" s="11"/>
-      <c r="C33" s="11" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="10" t="s">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F34" s="10"/>
+      <c r="F34" s="7"/>
     </row>
     <row r="35" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A35" s="11"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="11"/>
-      <c r="D35" s="10" t="s">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="E35" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F35" s="10"/>
+      <c r="F35" s="7"/>
     </row>
     <row r="36" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="11"/>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11" t="s">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="F36" s="10"/>
+      <c r="F36" s="7"/>
     </row>
     <row r="37" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="11"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="10" t="s">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="10"/>
+      <c r="E37" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="10"/>
+      <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="10" t="s">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+      <c r="E38" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="7"/>
     </row>
     <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="10" t="s">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="7"/>
     </row>
     <row r="40" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11" t="s">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="F40" s="7"/>
     </row>
     <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="11"/>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11"/>
-      <c r="E41" s="10" t="s">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F41" s="10"/>
+      <c r="F41" s="7"/>
     </row>
     <row r="42" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="11"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="10" t="s">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="F42" s="10"/>
+      <c r="F42" s="7"/>
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="11"/>
-      <c r="B43" s="11"/>
-      <c r="C43" s="11"/>
-      <c r="D43" s="11"/>
-      <c r="E43" s="10" t="s">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="10"/>
+      <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="11"/>
-      <c r="B44" s="11"/>
-      <c r="C44" s="11"/>
-      <c r="D44" s="10" t="s">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="E44" s="10" t="s">
+      <c r="E44" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F44" s="10"/>
+      <c r="F44" s="7"/>
     </row>
     <row r="45" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A45" s="11"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="10" t="s">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="E45" s="10" t="s">
+      <c r="E45" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F45" s="10"/>
+      <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="11"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="10" t="s">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E46" s="10" t="s">
+      <c r="E46" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F46" s="10"/>
+      <c r="F46" s="7"/>
     </row>
     <row r="47" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="11"/>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11" t="s">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
     </row>
     <row r="48" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="11"/>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="10" t="s">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
     </row>
     <row r="49" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="11"/>
-      <c r="B49" s="10" t="s">
+      <c r="A49" s="10"/>
+      <c r="B49" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -1839,23 +2096,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N36"/>
+  <dimension ref="B2:N112"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
+    <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="28.25" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.625" style="14" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.25" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
@@ -1864,21 +2121,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -1886,535 +2143,1893 @@
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5" t="s">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-    </row>
-    <row r="5" spans="2:14" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="3" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="2:14" s="3" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>173</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="F7" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B9" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B10" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B11" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="I11" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B12" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+    </row>
+    <row r="13" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B13" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+    </row>
+    <row r="14" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+      <c r="B14" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>190</v>
+      </c>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+    </row>
+    <row r="15" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+      <c r="B15" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+    </row>
+    <row r="16" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+      <c r="B16" s="16" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+    </row>
+    <row r="17" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+      <c r="B17" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="B18" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
+      <c r="B19" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="B20" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="16"/>
+      <c r="N23" s="16"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="16"/>
+      <c r="N26" s="16"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="16"/>
+      <c r="N27" s="16"/>
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="16"/>
+      <c r="N28" s="16"/>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="16"/>
+      <c r="N29" s="16"/>
     </row>
     <row r="30" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="16"/>
+      <c r="N30" s="16"/>
     </row>
     <row r="31" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="16"/>
+      <c r="N31" s="16"/>
     </row>
     <row r="32" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="16"/>
+      <c r="N32" s="16"/>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="16"/>
+      <c r="N33" s="16"/>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="16"/>
+      <c r="N34" s="16"/>
     </row>
     <row r="35" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="16"/>
+      <c r="N35" s="16"/>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="16"/>
+      <c r="N36" s="16"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B37" s="18"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="18"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B38" s="18"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="18"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="18"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="18"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="18"/>
+      <c r="N40" s="18"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="18"/>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="18"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B42" s="18"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="18"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B43" s="18"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B44" s="18"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="18"/>
+      <c r="L44" s="18"/>
+      <c r="M44" s="18"/>
+      <c r="N44" s="18"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B45" s="18"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="18"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="18"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B46" s="18"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="18"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="18"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B47" s="18"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="18"/>
+      <c r="E47" s="18"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="18"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="18"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B48" s="18"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="18"/>
+      <c r="L48" s="18"/>
+      <c r="M48" s="18"/>
+      <c r="N48" s="18"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B49" s="18"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="18"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B50" s="18"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="18"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="18"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="18"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="18"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="18"/>
+      <c r="L52" s="18"/>
+      <c r="M52" s="18"/>
+      <c r="N52" s="18"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="18"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="18"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="18"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B57" s="18"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="18"/>
+      <c r="E57" s="18"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="18"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="18"/>
+      <c r="L57" s="18"/>
+      <c r="M57" s="18"/>
+      <c r="N57" s="18"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B58" s="18"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="18"/>
+      <c r="E58" s="18"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="18"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="18"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="18"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B59" s="18"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="18"/>
+      <c r="E59" s="18"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="18"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="18"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="18"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B60" s="18"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="18"/>
+      <c r="E60" s="18"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="18"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="18"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B61" s="18"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="18"/>
+      <c r="E61" s="18"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="18"/>
+      <c r="N61" s="18"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B62" s="18"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="18"/>
+      <c r="E62" s="18"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="18"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="18"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="18"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B63" s="18"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="18"/>
+      <c r="E63" s="18"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="18"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B64" s="18"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="18"/>
+      <c r="E64" s="18"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="18"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="18"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B65" s="18"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="18"/>
+      <c r="E65" s="18"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B66" s="18"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="18"/>
+      <c r="E66" s="18"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="18"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="18"/>
+      <c r="L66" s="18"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B67" s="18"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="18"/>
+      <c r="E67" s="18"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="18"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="18"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="18"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B68" s="18"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="18"/>
+      <c r="E68" s="18"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="18"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="18"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="18"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B69" s="18"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="18"/>
+      <c r="E69" s="18"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="18"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="18"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="18"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B70" s="18"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="18"/>
+      <c r="E70" s="18"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="18"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="18"/>
+      <c r="L70" s="18"/>
+      <c r="M70" s="18"/>
+      <c r="N70" s="18"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B71" s="18"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="18"/>
+      <c r="E71" s="18"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="18"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="18"/>
+      <c r="L71" s="18"/>
+      <c r="M71" s="18"/>
+      <c r="N71" s="18"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B72" s="18"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="18"/>
+      <c r="E72" s="18"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="18"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="18"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="18"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B73" s="18"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="18"/>
+      <c r="E73" s="18"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="18"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="18"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="18"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B74" s="18"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="18"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="18"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="18"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="18"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B75" s="18"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="18"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="18"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="18"/>
+      <c r="L75" s="18"/>
+      <c r="M75" s="18"/>
+      <c r="N75" s="18"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B76" s="18"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="18"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="18"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="18"/>
+      <c r="L76" s="18"/>
+      <c r="M76" s="18"/>
+      <c r="N76" s="18"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B77" s="18"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="18"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="18"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="18"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="18"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B78" s="18"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="18"/>
+      <c r="E78" s="18"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="18"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="18"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="18"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B79" s="18"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="18"/>
+      <c r="E79" s="18"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="18"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="18"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="18"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B82" s="18"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="18"/>
+      <c r="E82" s="18"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="18"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="18"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="18"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B83" s="18"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="18"/>
+      <c r="E83" s="18"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="18"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="18"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="18"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B84" s="18"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="18"/>
+      <c r="E84" s="18"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="18"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="18"/>
+      <c r="L84" s="18"/>
+      <c r="M84" s="18"/>
+      <c r="N84" s="18"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B85" s="18"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="18"/>
+      <c r="E85" s="18"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="18"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="18"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="18"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B86" s="18"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="18"/>
+      <c r="E86" s="18"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="18"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="18"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="18"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B87" s="18"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="18"/>
+      <c r="E87" s="18"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="18"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="18"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="18"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B88" s="18"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="18"/>
+      <c r="E88" s="18"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="18"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="18"/>
+      <c r="L88" s="18"/>
+      <c r="M88" s="18"/>
+      <c r="N88" s="18"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B89" s="18"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="18"/>
+      <c r="E89" s="18"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="18"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="18"/>
+      <c r="L89" s="18"/>
+      <c r="M89" s="18"/>
+      <c r="N89" s="18"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B90" s="18"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="18"/>
+      <c r="E90" s="18"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="18"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="18"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="18"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B91" s="18"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="18"/>
+      <c r="E91" s="18"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="18"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="18"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="18"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B93" s="18"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="18"/>
+      <c r="E93" s="18"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="18"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="18"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
+      <c r="N93" s="18"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B94" s="18"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="18"/>
+      <c r="E94" s="18"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="18"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="18"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="18"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B95" s="18"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="18"/>
+      <c r="E95" s="18"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="18"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="18"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="18"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B96" s="18"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="18"/>
+      <c r="E96" s="18"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="18"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="18"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="18"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B97" s="18"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="18"/>
+      <c r="E97" s="18"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="18"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="18"/>
+      <c r="L97" s="18"/>
+      <c r="M97" s="18"/>
+      <c r="N97" s="18"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B98" s="18"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="18"/>
+      <c r="E98" s="18"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="18"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="18"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="18"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B99" s="18"/>
+      <c r="C99" s="18"/>
+      <c r="D99" s="18"/>
+      <c r="E99" s="18"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="18"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="18"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="18"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B100" s="18"/>
+      <c r="C100" s="18"/>
+      <c r="D100" s="18"/>
+      <c r="E100" s="18"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="18"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="18"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B101" s="18"/>
+      <c r="C101" s="18"/>
+      <c r="D101" s="18"/>
+      <c r="E101" s="18"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="18"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="18"/>
+      <c r="K101" s="18"/>
+      <c r="L101" s="18"/>
+      <c r="M101" s="18"/>
+      <c r="N101" s="18"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B102" s="18"/>
+      <c r="C102" s="18"/>
+      <c r="D102" s="18"/>
+      <c r="E102" s="18"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="18"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="18"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="18"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="18"/>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B103" s="18"/>
+      <c r="C103" s="18"/>
+      <c r="D103" s="18"/>
+      <c r="E103" s="18"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="18"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="18"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="18"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="18"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B104" s="18"/>
+      <c r="C104" s="18"/>
+      <c r="D104" s="18"/>
+      <c r="E104" s="18"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="18"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="18"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="18"/>
+      <c r="M104" s="18"/>
+      <c r="N104" s="18"/>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B105" s="18"/>
+      <c r="C105" s="18"/>
+      <c r="D105" s="18"/>
+      <c r="E105" s="18"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="18"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="18"/>
+      <c r="K105" s="18"/>
+      <c r="L105" s="18"/>
+      <c r="M105" s="18"/>
+      <c r="N105" s="18"/>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B106" s="18"/>
+      <c r="C106" s="18"/>
+      <c r="D106" s="18"/>
+      <c r="E106" s="18"/>
+      <c r="F106" s="18"/>
+      <c r="G106" s="18"/>
+      <c r="H106" s="18"/>
+      <c r="I106" s="19"/>
+      <c r="J106" s="18"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="18"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="18"/>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B107" s="18"/>
+      <c r="C107" s="18"/>
+      <c r="D107" s="18"/>
+      <c r="E107" s="18"/>
+      <c r="F107" s="18"/>
+      <c r="G107" s="18"/>
+      <c r="H107" s="18"/>
+      <c r="I107" s="19"/>
+      <c r="J107" s="18"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="18"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="18"/>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B108" s="18"/>
+      <c r="C108" s="18"/>
+      <c r="D108" s="18"/>
+      <c r="E108" s="18"/>
+      <c r="F108" s="18"/>
+      <c r="G108" s="18"/>
+      <c r="H108" s="18"/>
+      <c r="I108" s="19"/>
+      <c r="J108" s="18"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="18"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="18"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B109" s="18"/>
+      <c r="C109" s="18"/>
+      <c r="D109" s="18"/>
+      <c r="E109" s="18"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="18"/>
+      <c r="H109" s="18"/>
+      <c r="I109" s="19"/>
+      <c r="J109" s="18"/>
+      <c r="K109" s="18"/>
+      <c r="L109" s="18"/>
+      <c r="M109" s="18"/>
+      <c r="N109" s="18"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B110" s="18"/>
+      <c r="C110" s="18"/>
+      <c r="D110" s="18"/>
+      <c r="E110" s="18"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="18"/>
+      <c r="H110" s="18"/>
+      <c r="I110" s="19"/>
+      <c r="J110" s="18"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="18"/>
+      <c r="M110" s="18"/>
+      <c r="N110" s="18"/>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B111" s="18"/>
+      <c r="C111" s="18"/>
+      <c r="D111" s="18"/>
+      <c r="E111" s="18"/>
+      <c r="F111" s="18"/>
+      <c r="G111" s="18"/>
+      <c r="H111" s="18"/>
+      <c r="I111" s="19"/>
+      <c r="J111" s="18"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="18"/>
+      <c r="M111" s="18"/>
+      <c r="N111" s="18"/>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B112" s="18"/>
+      <c r="C112" s="18"/>
+      <c r="D112" s="18"/>
+      <c r="E112" s="18"/>
+      <c r="F112" s="18"/>
+      <c r="G112" s="18"/>
+      <c r="H112" s="18"/>
+      <c r="I112" s="19"/>
+      <c r="J112" s="18"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="18"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2448,8 +4063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2464,605 +4079,605 @@
   </cols>
   <sheetData>
     <row r="7" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="6" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="K8" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I9" s="7" t="s">
+      <c r="I9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="K9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="K10" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="I11" s="7" t="s">
+      <c r="I11" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="K11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I12" s="7" t="s">
+      <c r="I12" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="I13" s="7" t="s">
+      <c r="I13" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="K13" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="K14" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7" t="s">
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="F15" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7" t="s">
+      <c r="I15" s="4"/>
+      <c r="J15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="K15" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B16" s="7"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H16" s="7" t="s">
+      <c r="H16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7" t="s">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="K16" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H17" s="7" t="s">
+      <c r="H17" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="J17" s="7" t="s">
+      <c r="J17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="H18" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I18" s="7" t="s">
+      <c r="I18" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J18" s="7" t="s">
+      <c r="J18" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="F19" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H19" s="7" t="s">
+      <c r="H19" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I19" s="7" t="s">
+      <c r="I19" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J19" s="7" t="s">
+      <c r="J19" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="F20" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="H20" s="7" t="s">
+      <c r="H20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="I20" s="7" t="s">
+      <c r="I20" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="J20" s="7" t="s">
+      <c r="J20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="K20" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7" t="s">
+      <c r="L20" s="4"/>
+      <c r="M20" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="N20" s="7" t="s">
+      <c r="N20" s="4" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="21" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="J21" s="7" t="s">
+      <c r="J21" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="K21" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
     </row>
     <row r="22" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
     </row>
     <row r="23" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7"/>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7"/>
-      <c r="N23" s="7"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
     </row>
     <row r="24" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
     </row>
     <row r="25" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
     </row>
     <row r="26" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
     </row>
     <row r="27" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/wenjian/新资管系统.xlsx
+++ b/wenjian/新资管系统.xlsx
@@ -122,7 +122,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="748" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="396">
   <si>
     <t>新资管系统</t>
   </si>
@@ -1369,9 +1369,6 @@
   </si>
   <si>
     <t>参数管理-033</t>
-  </si>
-  <si>
-    <t>参数管理-034</t>
   </si>
   <si>
     <t>参数管理-035</t>
@@ -1739,6 +1736,123 @@
   </si>
   <si>
     <t>其他为否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、产品类型：收益型
+5、收益类型：非保本浮动收益型
+6、销售参数TAB页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>担险类显示“非担险”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、产品类型：收益型
+5、利率类型：保证收益性或保本浮动收益
+6、销售参数TAB页</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>担险类显示“担险”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数管理-068</t>
+  </si>
+  <si>
+    <t>参数管理-069</t>
+  </si>
+  <si>
+    <t>参数管理-070</t>
+  </si>
+  <si>
+    <t>参数管理-新建（保存）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示资金账户错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示请填写账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、定义多个同一类型、同一币种的多个资金账户
+5、点击【保存】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、托管账户、兑付账户、费用账户，缺一不填
+5、点击【保存】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数管理-新建（保存）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、填写要素信息
+5、点击【提交】
+复核岗审批通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询该新建模板，正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、填写要素信息
+5、点击【提交】
+复核岗审批不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待经办显示该信息状态为“审核不通过”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、模板名称、产品名称、产品简称任一重复
+5、点击【保存】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示重复信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、托管账户和组合的出款账户不同
+5、点击【保存】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示托管账户和出款账户不一致</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1981,15 +2095,6 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2002,6 +2107,10 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2020,10 +2129,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2427,13 +2541,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="22" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -2445,10 +2559,10 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="26" t="s">
+      <c r="A3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="25" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -2457,32 +2571,32 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="27"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="26"/>
       <c r="E4" s="9" t="s">
         <v>244</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="28"/>
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="27"/>
       <c r="E5" s="9" t="s">
         <v>245</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16" t="s">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="28" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -2491,19 +2605,19 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
       <c r="E7" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
       <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
@@ -2511,9 +2625,9 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
       <c r="D9" s="6" t="s">
         <v>6</v>
       </c>
@@ -2523,9 +2637,9 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
       <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
@@ -2535,9 +2649,9 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
       <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
@@ -2547,12 +2661,12 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16" t="s">
+      <c r="A12" s="28"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="16" t="s">
+      <c r="D12" s="28" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -2561,60 +2675,60 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="28"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="6" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="6" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16" t="s">
+      <c r="A18" s="28"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -2623,49 +2737,49 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="28"/>
       <c r="E19" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
       <c r="E20" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="28"/>
       <c r="E21" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
       <c r="D23" s="6" t="s">
         <v>12</v>
       </c>
@@ -2673,10 +2787,10 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16" t="s">
+      <c r="A24" s="28"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -2685,39 +2799,39 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
       <c r="E25" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
       <c r="E26" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
       <c r="E27" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16" t="s">
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -2729,9 +2843,9 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
       <c r="D29" s="6" t="s">
         <v>7</v>
       </c>
@@ -2741,9 +2855,9 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
       <c r="D30" s="6" t="s">
         <v>8</v>
       </c>
@@ -2753,9 +2867,9 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="16"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="16" t="s">
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -2767,9 +2881,9 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
       <c r="D32" s="6" t="s">
         <v>7</v>
       </c>
@@ -2779,9 +2893,9 @@
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="16"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="16" t="s">
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -2791,9 +2905,9 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="16"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
       <c r="D34" s="6" t="s">
         <v>17</v>
       </c>
@@ -2801,9 +2915,9 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="16"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="16" t="s">
+      <c r="A35" s="28"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="6" t="s">
@@ -2815,9 +2929,9 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="16"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
       <c r="D36" s="6" t="s">
         <v>20</v>
       </c>
@@ -2827,9 +2941,9 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="16"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
       <c r="D37" s="6" t="s">
         <v>21</v>
       </c>
@@ -2839,10 +2953,10 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="16"/>
-      <c r="D38" s="16" t="s">
+      <c r="A38" s="28"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28" t="s">
         <v>75</v>
       </c>
       <c r="E38" s="6" t="s">
@@ -2851,40 +2965,40 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="16"/>
-      <c r="B39" s="16"/>
-      <c r="C39" s="16"/>
-      <c r="D39" s="16"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="28"/>
       <c r="E39" s="6" t="s">
         <v>77</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-      <c r="C40" s="16"/>
-      <c r="D40" s="16"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="28"/>
       <c r="E40" s="6" t="s">
         <v>78</v>
       </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="16"/>
-      <c r="B41" s="16"/>
-      <c r="C41" s="16"/>
-      <c r="D41" s="16"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
       <c r="E41" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="16"/>
-      <c r="B42" s="16"/>
-      <c r="C42" s="16"/>
-      <c r="D42" s="16" t="s">
+      <c r="A42" s="28"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="6" t="s">
@@ -2893,39 +3007,39 @@
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="16"/>
-      <c r="B43" s="16"/>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="28"/>
+      <c r="D43" s="28"/>
       <c r="E43" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="16"/>
-      <c r="B44" s="16"/>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
       <c r="E44" s="6" t="s">
         <v>82</v>
       </c>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="16"/>
-      <c r="B45" s="16"/>
-      <c r="C45" s="16"/>
-      <c r="D45" s="16"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="28"/>
+      <c r="D45" s="28"/>
       <c r="E45" s="6" t="s">
         <v>83</v>
       </c>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="16"/>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="28"/>
       <c r="D46" s="6" t="s">
         <v>23</v>
       </c>
@@ -2935,9 +3049,9 @@
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="16"/>
-      <c r="B47" s="16"/>
-      <c r="C47" s="16"/>
+      <c r="A47" s="28"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="28"/>
       <c r="D47" s="6" t="s">
         <v>85</v>
       </c>
@@ -2947,8 +3061,8 @@
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="16"/>
-      <c r="B48" s="16"/>
+      <c r="A48" s="28"/>
+      <c r="B48" s="28"/>
       <c r="C48" s="6" t="s">
         <v>24</v>
       </c>
@@ -2961,9 +3075,9 @@
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16" t="s">
+      <c r="A49" s="28"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="28" t="s">
         <v>26</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -2973,9 +3087,9 @@
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="16"/>
-      <c r="B50" s="16"/>
-      <c r="C50" s="16"/>
+      <c r="A50" s="28"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="28"/>
       <c r="D50" s="6" t="s">
         <v>28</v>
       </c>
@@ -2983,7 +3097,7 @@
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="16"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="6" t="s">
         <v>29</v>
       </c>
@@ -2994,6 +3108,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D42:D45"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D3:D5"/>
     <mergeCell ref="A2:A51"/>
@@ -3010,7 +3125,6 @@
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="C31:C32"/>
     <mergeCell ref="D38:D41"/>
-    <mergeCell ref="D42:D45"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3023,13 +3137,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N125"/>
+  <dimension ref="B2:N129"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="5" topLeftCell="H6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="5" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="K55" sqref="K55"/>
+      <selection pane="bottomRight" activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3052,21 +3166,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B3" s="1" t="s">
@@ -3074,64 +3188,64 @@
       </c>
     </row>
     <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17" t="s">
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
     </row>
     <row r="5" spans="2:14" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="M5" s="19" t="s">
+      <c r="M5" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="16" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3354,7 +3468,7 @@
         <v>186</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11" t="s">
@@ -3831,21 +3945,21 @@
       <c r="N26" s="11"/>
     </row>
     <row r="27" spans="2:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="18" t="s">
         <v>227</v>
       </c>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
     </row>
     <row r="28" spans="2:14" ht="54" x14ac:dyDescent="0.15">
       <c r="B28" s="11" t="s">
@@ -4162,10 +4276,10 @@
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="I37" s="12" t="s">
         <v>350</v>
-      </c>
-      <c r="I37" s="12" t="s">
-        <v>351</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11" t="s">
@@ -4198,7 +4312,7 @@
         <v>272</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11" t="s">
@@ -4261,10 +4375,10 @@
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>347</v>
-      </c>
-      <c r="I40" s="12" t="s">
-        <v>348</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11" t="s">
@@ -4275,7 +4389,7 @@
       </c>
       <c r="M40" s="11"/>
       <c r="N40" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
@@ -4296,10 +4410,10 @@
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="12" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="11" t="s">
@@ -4310,7 +4424,7 @@
       </c>
       <c r="M41" s="11"/>
       <c r="N41" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
@@ -4331,10 +4445,10 @@
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="I42" s="12" t="s">
         <v>365</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>366</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11" t="s">
@@ -4364,7 +4478,7 @@
       </c>
       <c r="G43" s="11"/>
       <c r="H43" s="12" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I43" s="12" t="s">
         <v>274</v>
@@ -4399,10 +4513,10 @@
       </c>
       <c r="G44" s="11"/>
       <c r="H44" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="I44" s="12" t="s">
         <v>329</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>330</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11" t="s">
@@ -4432,10 +4546,10 @@
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11" t="s">
@@ -4461,14 +4575,14 @@
         <v>48</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G46" s="11"/>
       <c r="H46" s="12" t="s">
+        <v>334</v>
+      </c>
+      <c r="I46" s="12" t="s">
         <v>335</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>336</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="11" t="s">
@@ -4494,14 +4608,14 @@
         <v>48</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G47" s="11"/>
       <c r="H47" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="I47" s="29" t="s">
-        <v>338</v>
+        <v>357</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>337</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11" t="s">
@@ -4527,14 +4641,14 @@
         <v>48</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G48" s="11"/>
       <c r="H48" s="12" t="s">
-        <v>359</v>
-      </c>
-      <c r="I48" s="29" t="s">
-        <v>339</v>
+        <v>358</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>338</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="11" t="s">
@@ -4560,14 +4674,14 @@
         <v>48</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G49" s="11"/>
       <c r="H49" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="I49" s="12" t="s">
         <v>360</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>361</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="11" t="s">
@@ -4578,7 +4692,7 @@
       </c>
       <c r="M49" s="11"/>
       <c r="N49" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="50" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
@@ -4595,14 +4709,14 @@
         <v>48</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="I50" s="20" t="s">
         <v>363</v>
-      </c>
-      <c r="I50" s="29" t="s">
-        <v>364</v>
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="11" t="s">
@@ -4615,7 +4729,9 @@
       <c r="N50" s="11"/>
     </row>
     <row r="51" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B51" s="11"/>
+      <c r="B51" s="11" t="s">
+        <v>288</v>
+      </c>
       <c r="C51" s="11" t="s">
         <v>240</v>
       </c>
@@ -4626,26 +4742,30 @@
         <v>48</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="I51" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="I51" s="12" t="s">
-        <v>374</v>
-      </c>
       <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-      <c r="L51" s="11"/>
+      <c r="K51" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M51" s="11"/>
       <c r="N51" s="11" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B52" s="11" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>240</v>
@@ -4657,14 +4777,14 @@
         <v>48</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="G52" s="11"/>
       <c r="H52" s="12" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>343</v>
+        <v>376</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="11" t="s">
@@ -4674,13 +4794,11 @@
         <v>160</v>
       </c>
       <c r="M52" s="11"/>
-      <c r="N52" s="11" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="53" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="N52" s="11"/>
+    </row>
+    <row r="53" spans="2:14" ht="108" x14ac:dyDescent="0.15">
       <c r="B53" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>240</v>
@@ -4692,14 +4810,14 @@
         <v>48</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="G53" s="11"/>
       <c r="H53" s="12" t="s">
-        <v>345</v>
+        <v>377</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="11" t="s">
@@ -4713,7 +4831,7 @@
     </row>
     <row r="54" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B54" s="11" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C54" s="11" t="s">
         <v>240</v>
@@ -4725,14 +4843,14 @@
         <v>48</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G54" s="11"/>
       <c r="H54" s="12" t="s">
-        <v>371</v>
+        <v>341</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>372</v>
+        <v>342</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="11" t="s">
@@ -4742,11 +4860,13 @@
         <v>160</v>
       </c>
       <c r="M54" s="11"/>
-      <c r="N54" s="11"/>
+      <c r="N54" s="11" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="55" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B55" s="11" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C55" s="11" t="s">
         <v>240</v>
@@ -4758,15 +4878,16 @@
         <v>48</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>368</v>
+        <v>340</v>
       </c>
       <c r="G55" s="11"/>
       <c r="H55" s="12" t="s">
-        <v>369</v>
+        <v>344</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>370</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="J55" s="11"/>
       <c r="K55" s="11" t="s">
         <v>159</v>
       </c>
@@ -4774,138 +4895,235 @@
         <v>160</v>
       </c>
       <c r="M55" s="11"/>
-      <c r="N55" s="30"/>
-    </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="N55" s="11"/>
+    </row>
+    <row r="56" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B56" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11"/>
-      <c r="F56" s="12"/>
+        <v>293</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F56" s="12" t="s">
+        <v>340</v>
+      </c>
       <c r="G56" s="11"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="12"/>
+      <c r="H56" s="12" t="s">
+        <v>370</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>371</v>
+      </c>
       <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-      <c r="L56" s="11"/>
+      <c r="K56" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L56" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B57" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="C57" s="11"/>
-      <c r="D57" s="11"/>
-      <c r="E57" s="11"/>
-      <c r="F57" s="12"/>
+        <v>294</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>367</v>
+      </c>
       <c r="G57" s="11"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-      <c r="L57" s="11"/>
+      <c r="H57" s="12" t="s">
+        <v>368</v>
+      </c>
+      <c r="I57" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="K57" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L57" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M57" s="11"/>
-      <c r="N57" s="11"/>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B58" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="C58" s="11"/>
-      <c r="D58" s="11"/>
-      <c r="E58" s="11"/>
-      <c r="F58" s="12"/>
+      <c r="N57" s="21"/>
+    </row>
+    <row r="58" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F58" s="12" t="s">
+        <v>387</v>
+      </c>
       <c r="G58" s="11"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="11"/>
+      <c r="H58" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="I58" s="12" t="s">
+        <v>389</v>
+      </c>
       <c r="K58" s="11"/>
       <c r="L58" s="11"/>
       <c r="M58" s="11"/>
-      <c r="N58" s="11"/>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B59" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="C59" s="11"/>
-      <c r="D59" s="11"/>
-      <c r="E59" s="11"/>
-      <c r="F59" s="12"/>
+      <c r="N58" s="21"/>
+    </row>
+    <row r="59" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F59" s="12" t="s">
+        <v>387</v>
+      </c>
       <c r="G59" s="11"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="11"/>
+      <c r="H59" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>391</v>
+      </c>
       <c r="K59" s="11"/>
       <c r="L59" s="11"/>
       <c r="M59" s="11"/>
-      <c r="N59" s="11"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="N59" s="21"/>
+    </row>
+    <row r="60" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B60" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="C60" s="11"/>
-      <c r="D60" s="11"/>
-      <c r="E60" s="11"/>
-      <c r="F60" s="12"/>
+        <v>295</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>387</v>
+      </c>
       <c r="G60" s="11"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="12"/>
+      <c r="H60" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="I60" s="12" t="s">
+        <v>383</v>
+      </c>
       <c r="J60" s="11"/>
       <c r="K60" s="11"/>
       <c r="L60" s="11"/>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B61" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="12"/>
+        <v>296</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F61" s="12" t="s">
+        <v>382</v>
+      </c>
       <c r="G61" s="11"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="12"/>
+      <c r="H61" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>384</v>
+      </c>
       <c r="J61" s="11"/>
       <c r="K61" s="11"/>
       <c r="L61" s="11"/>
       <c r="M61" s="11"/>
       <c r="N61" s="11"/>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="62" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B62" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="C62" s="11"/>
-      <c r="D62" s="11"/>
-      <c r="E62" s="11"/>
-      <c r="F62" s="12"/>
+        <v>297</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="12" t="s">
+        <v>382</v>
+      </c>
       <c r="G62" s="11"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="12"/>
+      <c r="H62" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>393</v>
+      </c>
       <c r="J62" s="11"/>
       <c r="K62" s="11"/>
       <c r="L62" s="11"/>
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B63" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="C63" s="11"/>
-      <c r="D63" s="11"/>
-      <c r="E63" s="11"/>
-      <c r="F63" s="12"/>
+        <v>297</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D63" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F63" s="12" t="s">
+        <v>382</v>
+      </c>
       <c r="G63" s="11"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="12"/>
+      <c r="H63" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>395</v>
+      </c>
       <c r="J63" s="11"/>
       <c r="K63" s="11"/>
       <c r="L63" s="11"/>
@@ -4914,7 +5132,7 @@
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B64" s="11" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C64" s="11"/>
       <c r="D64" s="11"/>
@@ -4931,7 +5149,7 @@
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B65" s="11" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C65" s="11"/>
       <c r="D65" s="11"/>
@@ -4948,7 +5166,7 @@
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B66" s="11" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C66" s="11"/>
       <c r="D66" s="11"/>
@@ -4965,7 +5183,7 @@
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
@@ -4982,7 +5200,7 @@
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B68" s="11" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C68" s="11"/>
       <c r="D68" s="11"/>
@@ -4999,7 +5217,7 @@
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B69" s="11" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C69" s="11"/>
       <c r="D69" s="11"/>
@@ -5016,7 +5234,7 @@
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B70" s="11" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
@@ -5033,7 +5251,7 @@
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B71" s="11" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -5050,7 +5268,7 @@
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B72" s="11" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -5067,7 +5285,7 @@
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B73" s="11" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -5084,7 +5302,7 @@
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B74" s="11" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -5101,7 +5319,7 @@
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B75" s="11" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -5118,7 +5336,7 @@
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B76" s="11" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C76" s="11"/>
       <c r="D76" s="11"/>
@@ -5135,7 +5353,7 @@
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B77" s="11" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
@@ -5152,7 +5370,7 @@
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B78" s="11" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C78" s="11"/>
       <c r="D78" s="11"/>
@@ -5169,7 +5387,7 @@
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B79" s="11" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C79" s="11"/>
       <c r="D79" s="11"/>
@@ -5186,7 +5404,7 @@
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B80" s="11" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C80" s="11"/>
       <c r="D80" s="11"/>
@@ -5203,7 +5421,7 @@
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B81" s="11" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
@@ -5220,7 +5438,7 @@
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B82" s="11" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
@@ -5237,7 +5455,7 @@
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B83" s="11" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
@@ -5254,7 +5472,7 @@
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B84" s="11" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
@@ -5271,7 +5489,7 @@
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B85" s="11" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -5288,7 +5506,7 @@
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B86" s="11" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -5305,7 +5523,7 @@
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B87" s="11" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -5322,7 +5540,7 @@
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B88" s="11" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -5339,7 +5557,7 @@
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B89" s="11" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C89" s="11"/>
       <c r="D89" s="11"/>
@@ -5356,7 +5574,7 @@
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B90" s="11" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C90" s="11"/>
       <c r="D90" s="11"/>
@@ -5373,7 +5591,7 @@
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B91" s="11" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C91" s="11"/>
       <c r="D91" s="11"/>
@@ -5390,7 +5608,7 @@
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B92" s="11" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C92" s="11"/>
       <c r="D92" s="11"/>
@@ -5407,7 +5625,7 @@
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B93" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C93" s="11"/>
       <c r="D93" s="11"/>
@@ -5424,7 +5642,7 @@
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B94" s="11" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="C94" s="11"/>
       <c r="D94" s="11"/>
@@ -5441,7 +5659,7 @@
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B95" s="11" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -5458,7 +5676,7 @@
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B96" s="11" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="C96" s="11"/>
       <c r="D96" s="11"/>
@@ -5475,7 +5693,7 @@
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B97" s="11" t="s">
-        <v>327</v>
+        <v>379</v>
       </c>
       <c r="C97" s="11"/>
       <c r="D97" s="11"/>
@@ -5492,7 +5710,7 @@
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B98" s="11" t="s">
-        <v>328</v>
+        <v>380</v>
       </c>
       <c r="C98" s="11"/>
       <c r="D98" s="11"/>
@@ -5509,7 +5727,7 @@
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B99" s="11" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
@@ -5526,7 +5744,7 @@
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B100" s="11" t="s">
-        <v>353</v>
+        <v>325</v>
       </c>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
@@ -5543,7 +5761,7 @@
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B101" s="11" t="s">
-        <v>354</v>
+        <v>326</v>
       </c>
       <c r="C101" s="11"/>
       <c r="D101" s="11"/>
@@ -5559,64 +5777,72 @@
       <c r="N101" s="11"/>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13"/>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="13"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13"/>
+      <c r="B102" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c r="F102" s="12"/>
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="12"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="11"/>
+      <c r="L102" s="11"/>
+      <c r="M102" s="11"/>
+      <c r="N102" s="11"/>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="13"/>
-      <c r="E103" s="13"/>
-      <c r="F103" s="13"/>
-      <c r="G103" s="13"/>
-      <c r="H103" s="13"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="13"/>
-      <c r="K103" s="13"/>
-      <c r="L103" s="13"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="13"/>
+      <c r="B103" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C103" s="11"/>
+      <c r="D103" s="11"/>
+      <c r="E103" s="11"/>
+      <c r="F103" s="12"/>
+      <c r="G103" s="11"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="12"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="11"/>
+      <c r="L103" s="11"/>
+      <c r="M103" s="11"/>
+      <c r="N103" s="11"/>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="13"/>
-      <c r="E104" s="13"/>
-      <c r="F104" s="13"/>
-      <c r="G104" s="13"/>
-      <c r="H104" s="13"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="13"/>
-      <c r="K104" s="13"/>
-      <c r="L104" s="13"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="13"/>
+      <c r="B104" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="C104" s="11"/>
+      <c r="D104" s="11"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="12"/>
+      <c r="G104" s="11"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="12"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="11"/>
+      <c r="L104" s="11"/>
+      <c r="M104" s="11"/>
+      <c r="N104" s="11"/>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="13"/>
-      <c r="E105" s="13"/>
-      <c r="F105" s="13"/>
-      <c r="G105" s="13"/>
-      <c r="H105" s="13"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="13"/>
-      <c r="K105" s="13"/>
-      <c r="L105" s="13"/>
-      <c r="M105" s="13"/>
-      <c r="N105" s="13"/>
+      <c r="B105" s="11" t="s">
+        <v>353</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="D105" s="11"/>
+      <c r="E105" s="11"/>
+      <c r="F105" s="12"/>
+      <c r="G105" s="11"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="12"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="11"/>
+      <c r="L105" s="11"/>
+      <c r="M105" s="11"/>
+      <c r="N105" s="11"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B106" s="13"/>
@@ -5918,6 +6144,66 @@
       <c r="M125" s="13"/>
       <c r="N125" s="13"/>
     </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+      <c r="G126" s="13"/>
+      <c r="H126" s="13"/>
+      <c r="I126" s="14"/>
+      <c r="J126" s="13"/>
+      <c r="K126" s="13"/>
+      <c r="L126" s="13"/>
+      <c r="M126" s="13"/>
+      <c r="N126" s="13"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
+      <c r="G127" s="13"/>
+      <c r="H127" s="13"/>
+      <c r="I127" s="14"/>
+      <c r="J127" s="13"/>
+      <c r="K127" s="13"/>
+      <c r="L127" s="13"/>
+      <c r="M127" s="13"/>
+      <c r="N127" s="13"/>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B128" s="13"/>
+      <c r="C128" s="13"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="13"/>
+      <c r="F128" s="13"/>
+      <c r="G128" s="13"/>
+      <c r="H128" s="13"/>
+      <c r="I128" s="14"/>
+      <c r="J128" s="13"/>
+      <c r="K128" s="13"/>
+      <c r="L128" s="13"/>
+      <c r="M128" s="13"/>
+      <c r="N128" s="13"/>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="B129" s="13"/>
+      <c r="C129" s="13"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="13"/>
+      <c r="F129" s="13"/>
+      <c r="G129" s="13"/>
+      <c r="H129" s="13"/>
+      <c r="I129" s="14"/>
+      <c r="J129" s="13"/>
+      <c r="K129" s="13"/>
+      <c r="L129" s="13"/>
+      <c r="M129" s="13"/>
+      <c r="N129" s="13"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B4:E4"/>
@@ -5927,16 +6213,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C105">
       <formula1>"模板管理/文档管理,模板管理/参数管理"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E105">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D105">
       <formula1>"功能测试,用户界面测试,用户体验测试,容错性测试,其他测试"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K101">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K105">
       <formula1>"未测试,通过,不通过,不适用"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6568,12 +6854,12 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/wenjian/新资管系统.xlsx
+++ b/wenjian/新资管系统.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="汇总" sheetId="1" r:id="rId1"/>
     <sheet name="模板管理" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="信息管理" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="属性" sheetId="3" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">模板管理!$B$5:$N$87</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -121,8 +125,108 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="C5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>最低层次模块</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>在下拉框中选择测试类型，如无合适选项，可选择“其他测试”，并在备注说明测试类型</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">标题：
+简要说明该测试用例的测试重点
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>测试数据：
+根据实际使用数据进行填写，如测试时使用的账号、角色等</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">预期结果:
+说明执行测试操作后的具体预期结果，如显示或输出内容、系统保持数据、生成报表等
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>实际结果：
+说明实际执行测试操作后的实际结果，如显示的具体内容，输出的具体数据、系统保存的实际数据等</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="492">
   <si>
     <t>新资管系统</t>
   </si>
@@ -1447,18 +1551,6 @@
   </si>
   <si>
     <t>参数管理-060</t>
-  </si>
-  <si>
-    <t>参数管理-061</t>
-  </si>
-  <si>
-    <t>参数管理-062</t>
-  </si>
-  <si>
-    <t>参数管理-063</t>
-  </si>
-  <si>
-    <t>参数管理-064</t>
   </si>
   <si>
     <t>1、登录新资管系统
@@ -1539,9 +1631,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数管理-065</t>
-  </si>
-  <si>
     <t>参数管理-新建（开放式产品）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1606,12 +1695,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数管理-066</t>
-  </si>
-  <si>
-    <t>参数管理-067</t>
-  </si>
-  <si>
     <t>开放计划TAB页、付息计划TAB页见共通测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1765,15 +1848,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参数管理-068</t>
-  </si>
-  <si>
-    <t>参数管理-069</t>
-  </si>
-  <si>
-    <t>参数管理-070</t>
-  </si>
-  <si>
     <t>参数管理-新建（保存）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1853,6 +1927,662 @@
   </si>
   <si>
     <t>提示托管账户和出款账户不一致</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板代码：MJZX-001(净值型)
+投资组合：净值型产品
+模板名称：净值型产品-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、产品类型：净值型
+5、发行方式：开放式
+6、其他默认
+7、点击【提交】
+8、复核岗复核通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板新建成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、产品类型：净值型
+5、发行方式：开放式
+6、其他默认
+7、点击【取消】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板新建失败，待办事项审批不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、产品类型：收益型
+5、发行方式：封闭式
+6、是否挂钩结构性标的：是
+7、理财类型：结构性存款
+8、其他默认
+9、点击【提交】
+10、复核岗复核通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板代码：MJGX-001(结构性)
+投资组合：结构性产品
+模板名称：结构性产品（存款）-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、产品类型：收益型
+5、发行方式：封闭式
+6、是否挂钩结构性标的：是
+7、理财类型：结构性存款
+8、其他默认
+9、点击【提交】
+10、复核岗复核不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板代码：MJGX-002(结构性)
+投资组合：结构性产品
+模板名称：结构性产品（理财）-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、产品类型：收益型
+5、发行方式：封闭式
+6、是否挂钩结构性标的：是
+7、理财类型：结构性理财
+8、其他默认
+9、点击【提交】
+10、复核岗复核通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、产品类型：收益型
+5、发行方式：封闭式
+6、是否挂钩结构性标的：是
+7、理财类型：结构性理财
+8、其他默认
+9、点击【提交】
+10、复核岗复核不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板代码：MFC-001(分层)
+投资组合：分层产品
+模板名称：分层产品（金额）-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、产品类型：收益型
+5、是否分层：是
+6、分层类型：金额分层
+7、其他默认
+8、点击【提交】
+9、复核岗审批通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、产品类型：收益型
+5、是否分层：是
+6、分层类型：金额分层
+7、其他默认
+8、点击【提交】
+9、复核岗审批不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板代码：MFC-002(分层)
+投资组合：分层产品
+模板名称：分层产品（期限）-002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、产品类型：收益型
+5、是否分层：是
+6、分层类型：期限分层
+7、其他默认
+8、点击【提交】
+9、复核岗审批通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、产品类型：收益型
+5、是否分层：是
+6、分层类型：期限分层
+7、其他默认
+8、点击【提交】
+9、复核岗审批不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数管理-034</t>
+  </si>
+  <si>
+    <t>参数管理-新建（封闭式产品）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板代码：MFGD-001(固定期限)
+投资组合：固定期限
+模板名称：固定期限-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、产品类型：收益型
+5、发行方式：封闭式
+6、其他默认
+7、点击【提交】
+8、复核岗审批通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、产品类型：收益型
+5、发行方式：封闭式
+6、其他默认
+7、点击【提交】
+8、复核岗审批不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板代码：MKT0-001(T+0)
+投资组合：T+0产品
+模板名称：T+0产品-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、产品类型：收益型
+5、发行方式：开放式
+6、其他默认
+7、点击【提交】
+8、复核岗审批通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、点击【新建】
+4、产品类型：收益型
+5、发行方式：开放式
+6、其他默认
+7、点击【提交】
+8、复核岗审批不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板代码：MKMZ-001(每周)
+投资组合：每周产品
+模板名称：每周产品-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板代码：MKMY-001(每月)
+投资组合：每月产品
+模板名称：每月产品-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数管理-新建（修改）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、选择查询记录
+4、点击【修改】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板代码不能修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、选择查询记录
+4、点击【修改】
+5、选择修改项
+6、点击【提交】
+7、复核岗审批通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、选择查询记录
+4、点击【修改】
+5、选择修改项
+6、点击【提交】
+7、复核岗审批不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改失败，待经办事项显示不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、选择查询记录
+4、点击【修改】
+5、选择修改项
+6、点击【取消】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改失败，原模板不变</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参数管理-新建（修改）删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、选择查询记录
+4、点击【删除】
+5、确认删除
+6、复核岗审批通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改成功，覆盖原模板文件，查询已发行的产品不受影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除成功，查询已发行的产品不受影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【产品模板】→【参数管理】
+3、选择查询记录
+4、点击【删除】
+5、确认删除
+6、复核岗审批不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除不成功，待办事项显示删除不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易管理/产品信息导入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【产品信息导入】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面正常显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导入页面显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品信息导入-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品信息导入-002</t>
+  </si>
+  <si>
+    <t>模板下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【产品信息导入】
+3、点击【模板下载】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面下载产品要素导入Excel文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面初始化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板上传成功，待经办显示新建</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【产品信息导入】
+3、点击选择非Excel文件
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上传失败，页面显示“模板类型错误”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板导入成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板导入失败，待经办事项显示审批不通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品信息导入-上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品信息导入-保存审核</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品信息导入-上传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品信息导入-上传非Excel文件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品信息导入-模板内容错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示导入文件错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【产品信息导入】
+3、点击【取消】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【产品信息导入】
+3、点击选择Excel文件
+5、点击【导入】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【产品信息导入】
+3、点击选择Excel文件（内容错误）
+4、点击【导入】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【产品信息导入】
+3、点击选择Excel文件
+4、点击【导入】
+5、复核岗审核通过
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【产品信息导入】
+3、点击选择Excel文件
+4、点击【导入】
+5、复核岗审核不通过
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品信息导入-003</t>
+  </si>
+  <si>
+    <t>产品信息导入-004</t>
+  </si>
+  <si>
+    <t>产品信息导入-005</t>
+  </si>
+  <si>
+    <t>产品信息导入-006</t>
+  </si>
+  <si>
+    <t>产品信息导入-007</t>
+  </si>
+  <si>
+    <t>产品信息导入-008</t>
+  </si>
+  <si>
+    <t>预期收益型产品-001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交易管理/预期收益型产品</t>
+  </si>
+  <si>
+    <t>预期收益型产品-查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页面显示正常，默认为空结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、只输入投资处室
+5、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有符合投资处室的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有符合投资组合的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有符合产品简称的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有符合投资类型的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有符合起息日的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、只输入到期日或区间
+5、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有符合到期日的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、只输入募集开始日或区间
+5、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有符合募集开始日的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、只输入募集结束日或区间
+5、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有符合募集结束日的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有符合发行状态的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、只输入发行状态（可复选）
+5、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、只输入有效状态
+5、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有符合有效状态的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、只输入发行方式
+5、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示所有符合发行方式的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、输入所有查询条件
+5、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>显示符合条件的记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、不输入查询条件
+4、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、只输入产品简称（只显示预期收益型产品，可复选）
+5、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、只输入投资组合（组合管理中维护的信息，可复选）
+5、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、只输入投资类型(个人客户专属、私人银行客户专属)
+5、点击【查询】
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1、登录新资管系统
+2、进入【产品管理】→【交易管理】→【预期收益型产品】
+3、只输入投资类型(个人客户专属、
+私人银行客户专属、机构客户专属、
+银行同业专属)
+5、点击【查询】
+</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2052,7 +2782,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2111,6 +2841,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2129,14 +2862,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2507,7 +3240,7 @@
   <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C5"/>
+      <selection activeCell="D3" sqref="D3:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2541,13 +3274,13 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>49</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -2559,10 +3292,10 @@
       <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="28"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="25" t="s">
+      <c r="A3" s="22"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="26" t="s">
         <v>3</v>
       </c>
       <c r="E3" s="9" t="s">
@@ -2571,32 +3304,32 @@
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="26"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="9" t="s">
         <v>244</v>
       </c>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="27"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="28"/>
       <c r="E5" s="9" t="s">
         <v>245</v>
       </c>
       <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28" t="s">
+      <c r="A6" s="22"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="22" t="s">
         <v>51</v>
       </c>
       <c r="E6" s="6" t="s">
@@ -2605,19 +3338,19 @@
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
       <c r="E7" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="22"/>
       <c r="D8" s="6" t="s">
         <v>5</v>
       </c>
@@ -2625,9 +3358,9 @@
       <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
+      <c r="A9" s="22"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
       <c r="D9" s="6" t="s">
         <v>6</v>
       </c>
@@ -2637,9 +3370,9 @@
       <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="22"/>
       <c r="D10" s="6" t="s">
         <v>7</v>
       </c>
@@ -2649,9 +3382,9 @@
       <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="22"/>
       <c r="D11" s="6" t="s">
         <v>8</v>
       </c>
@@ -2661,12 +3394,12 @@
       <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28" t="s">
+      <c r="A12" s="22"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="22" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
@@ -2675,60 +3408,60 @@
       <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
       <c r="E13" s="6" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
       <c r="E14" s="6" t="s">
         <v>59</v>
       </c>
       <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="28"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="22"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
       <c r="E15" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
       <c r="E16" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
       <c r="E17" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28" t="s">
+      <c r="A18" s="22"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22" t="s">
         <v>11</v>
       </c>
       <c r="E18" s="6" t="s">
@@ -2737,49 +3470,49 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="22"/>
       <c r="E19" s="6" t="s">
         <v>64</v>
       </c>
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
       <c r="E20" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
       <c r="E21" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
       <c r="E22" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
       <c r="D23" s="6" t="s">
         <v>12</v>
       </c>
@@ -2787,10 +3520,10 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28" t="s">
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22" t="s">
         <v>13</v>
       </c>
       <c r="E24" s="6" t="s">
@@ -2799,39 +3532,39 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="6" t="s">
         <v>60</v>
       </c>
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="6" t="s">
         <v>61</v>
       </c>
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="6" t="s">
         <v>62</v>
       </c>
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28" t="s">
+      <c r="A28" s="22"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D28" s="6" t="s">
@@ -2843,9 +3576,9 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
       <c r="D29" s="6" t="s">
         <v>7</v>
       </c>
@@ -2855,9 +3588,9 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
       <c r="D30" s="6" t="s">
         <v>8</v>
       </c>
@@ -2867,9 +3600,9 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28" t="s">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="22" t="s">
         <v>69</v>
       </c>
       <c r="D31" s="6" t="s">
@@ -2881,9 +3614,9 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="6" t="s">
         <v>7</v>
       </c>
@@ -2893,9 +3626,9 @@
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28" t="s">
+      <c r="A33" s="22"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D33" s="6" t="s">
@@ -2905,9 +3638,9 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="28"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="6" t="s">
         <v>17</v>
       </c>
@@ -2915,9 +3648,9 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="28"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28" t="s">
+      <c r="A35" s="22"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D35" s="6" t="s">
@@ -2929,9 +3662,9 @@
       <c r="F35" s="6"/>
     </row>
     <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="28"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="22"/>
       <c r="D36" s="6" t="s">
         <v>20</v>
       </c>
@@ -2941,9 +3674,9 @@
       <c r="F36" s="6"/>
     </row>
     <row r="37" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A37" s="28"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
       <c r="D37" s="6" t="s">
         <v>21</v>
       </c>
@@ -2953,10 +3686,10 @@
       <c r="F37" s="6"/>
     </row>
     <row r="38" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="28"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="28" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="22"/>
+      <c r="D38" s="22" t="s">
         <v>75</v>
       </c>
       <c r="E38" s="6" t="s">
@@ -2965,40 +3698,40 @@
       <c r="F38" s="6"/>
     </row>
     <row r="39" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="28"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="28"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
       <c r="E39" s="6" t="s">
         <v>77</v>
       </c>
       <c r="F39" s="6"/>
     </row>
     <row r="40" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="28"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="28"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22"/>
+      <c r="D40" s="22"/>
       <c r="E40" s="6" t="s">
         <v>78</v>
       </c>
       <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="28"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="28"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="6" t="s">
         <v>79</v>
       </c>
       <c r="F41" s="6"/>
     </row>
     <row r="42" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="28"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28" t="s">
+      <c r="A42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="22" t="s">
         <v>22</v>
       </c>
       <c r="E42" s="6" t="s">
@@ -3007,39 +3740,39 @@
       <c r="F42" s="6"/>
     </row>
     <row r="43" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="28"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="28"/>
-      <c r="D43" s="28"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22"/>
+      <c r="D43" s="22"/>
       <c r="E43" s="6" t="s">
         <v>81</v>
       </c>
       <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="28"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="28"/>
-      <c r="D44" s="28"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="22"/>
+      <c r="D44" s="22"/>
       <c r="E44" s="6" t="s">
         <v>82</v>
       </c>
       <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="28"/>
-      <c r="B45" s="28"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="22"/>
+      <c r="D45" s="22"/>
       <c r="E45" s="6" t="s">
         <v>83</v>
       </c>
       <c r="F45" s="6"/>
     </row>
     <row r="46" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="28"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="28"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="22"/>
       <c r="D46" s="6" t="s">
         <v>23</v>
       </c>
@@ -3049,9 +3782,9 @@
       <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A47" s="28"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="28"/>
+      <c r="A47" s="22"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="6" t="s">
         <v>85</v>
       </c>
@@ -3061,8 +3794,8 @@
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="28"/>
-      <c r="B48" s="28"/>
+      <c r="A48" s="22"/>
+      <c r="B48" s="22"/>
       <c r="C48" s="6" t="s">
         <v>24</v>
       </c>
@@ -3075,9 +3808,9 @@
       <c r="F48" s="6"/>
     </row>
     <row r="49" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="28"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="28" t="s">
+      <c r="A49" s="22"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D49" s="6" t="s">
@@ -3087,9 +3820,9 @@
       <c r="F49" s="6"/>
     </row>
     <row r="50" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
+      <c r="A50" s="22"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="22"/>
       <c r="D50" s="6" t="s">
         <v>28</v>
       </c>
@@ -3097,7 +3830,7 @@
       <c r="F50" s="6"/>
     </row>
     <row r="51" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="28"/>
+      <c r="A51" s="22"/>
       <c r="B51" s="6" t="s">
         <v>29</v>
       </c>
@@ -3108,6 +3841,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D38:D41"/>
     <mergeCell ref="D42:D45"/>
     <mergeCell ref="C2:C5"/>
     <mergeCell ref="D3:D5"/>
@@ -3124,7 +3858,6 @@
     <mergeCell ref="D18:D22"/>
     <mergeCell ref="D24:D27"/>
     <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D38:D41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -3137,13 +3870,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N129"/>
+  <dimension ref="B2:N111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="7" ySplit="5" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="7" ySplit="5" topLeftCell="H87" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I63" sqref="I63"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3154,7 +3887,7 @@
     <col min="4" max="4" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="34" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.625" style="10" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.25" style="1" customWidth="1"/>
@@ -3468,7 +4201,7 @@
         <v>186</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11" t="s">
@@ -4276,10 +5009,10 @@
       </c>
       <c r="G37" s="11"/>
       <c r="H37" s="12" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="I37" s="12" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11" t="s">
@@ -4312,7 +5045,7 @@
         <v>272</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11" t="s">
@@ -4375,10 +5108,10 @@
       </c>
       <c r="G40" s="11"/>
       <c r="H40" s="12" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11" t="s">
@@ -4389,7 +5122,7 @@
       </c>
       <c r="M40" s="11"/>
       <c r="N40" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
@@ -4410,10 +5143,10 @@
       </c>
       <c r="G41" s="11"/>
       <c r="H41" s="12" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="11" t="s">
@@ -4424,7 +5157,7 @@
       </c>
       <c r="M41" s="11"/>
       <c r="N41" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="42" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
@@ -4445,10 +5178,10 @@
       </c>
       <c r="G42" s="11"/>
       <c r="H42" s="12" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11" t="s">
@@ -4474,14 +5207,16 @@
         <v>48</v>
       </c>
       <c r="F43" s="12" t="s">
-        <v>276</v>
-      </c>
-      <c r="G43" s="11"/>
+        <v>270</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>386</v>
+      </c>
       <c r="H43" s="12" t="s">
-        <v>336</v>
+        <v>387</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>274</v>
+        <v>388</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="11" t="s">
@@ -4491,9 +5226,7 @@
         <v>160</v>
       </c>
       <c r="M43" s="11"/>
-      <c r="N43" s="11" t="s">
-        <v>275</v>
-      </c>
+      <c r="N43" s="11"/>
     </row>
     <row r="44" spans="2:14" ht="108" x14ac:dyDescent="0.15">
       <c r="B44" s="11" t="s">
@@ -4509,14 +5242,16 @@
         <v>48</v>
       </c>
       <c r="F44" s="12" t="s">
-        <v>277</v>
-      </c>
-      <c r="G44" s="11"/>
+        <v>270</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>386</v>
+      </c>
       <c r="H44" s="12" t="s">
-        <v>328</v>
+        <v>389</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>329</v>
+        <v>390</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11" t="s">
@@ -4528,7 +5263,7 @@
       <c r="M44" s="11"/>
       <c r="N44" s="11"/>
     </row>
-    <row r="45" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:14" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B45" s="11" t="s">
         <v>283</v>
       </c>
@@ -4542,14 +5277,14 @@
         <v>48</v>
       </c>
       <c r="F45" s="12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G45" s="11"/>
       <c r="H45" s="12" t="s">
         <v>332</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>330</v>
+        <v>274</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11" t="s">
@@ -4559,9 +5294,11 @@
         <v>160</v>
       </c>
       <c r="M45" s="11"/>
-      <c r="N45" s="11"/>
-    </row>
-    <row r="46" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="N45" s="11" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" ht="148.5" x14ac:dyDescent="0.15">
       <c r="B46" s="11" t="s">
         <v>284</v>
       </c>
@@ -4575,14 +5312,16 @@
         <v>48</v>
       </c>
       <c r="F46" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="G46" s="11"/>
+        <v>276</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>393</v>
+      </c>
       <c r="H46" s="12" t="s">
-        <v>334</v>
+        <v>391</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>335</v>
+        <v>392</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="11" t="s">
@@ -4594,7 +5333,7 @@
       <c r="M46" s="11"/>
       <c r="N46" s="11"/>
     </row>
-    <row r="47" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:14" ht="148.5" x14ac:dyDescent="0.15">
       <c r="B47" s="11" t="s">
         <v>285</v>
       </c>
@@ -4608,14 +5347,16 @@
         <v>48</v>
       </c>
       <c r="F47" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="G47" s="11"/>
+        <v>276</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>393</v>
+      </c>
       <c r="H47" s="12" t="s">
-        <v>357</v>
-      </c>
-      <c r="I47" s="20" t="s">
-        <v>337</v>
+        <v>394</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>390</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11" t="s">
@@ -4627,7 +5368,7 @@
       <c r="M47" s="11"/>
       <c r="N47" s="11"/>
     </row>
-    <row r="48" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:14" ht="148.5" x14ac:dyDescent="0.15">
       <c r="B48" s="11" t="s">
         <v>228</v>
       </c>
@@ -4641,14 +5382,16 @@
         <v>48</v>
       </c>
       <c r="F48" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="G48" s="11"/>
+        <v>276</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>395</v>
+      </c>
       <c r="H48" s="12" t="s">
-        <v>358</v>
-      </c>
-      <c r="I48" s="20" t="s">
-        <v>338</v>
+        <v>396</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>392</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="11" t="s">
@@ -4660,7 +5403,7 @@
       <c r="M48" s="11"/>
       <c r="N48" s="11"/>
     </row>
-    <row r="49" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:14" ht="148.5" x14ac:dyDescent="0.15">
       <c r="B49" s="11" t="s">
         <v>286</v>
       </c>
@@ -4674,14 +5417,16 @@
         <v>48</v>
       </c>
       <c r="F49" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="G49" s="11"/>
+        <v>276</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>395</v>
+      </c>
       <c r="H49" s="12" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="11" t="s">
@@ -4691,11 +5436,9 @@
         <v>160</v>
       </c>
       <c r="M49" s="11"/>
-      <c r="N49" s="11" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="N49" s="11"/>
+    </row>
+    <row r="50" spans="2:14" ht="108" x14ac:dyDescent="0.15">
       <c r="B50" s="11" t="s">
         <v>287</v>
       </c>
@@ -4709,14 +5452,14 @@
         <v>48</v>
       </c>
       <c r="F50" s="12" t="s">
-        <v>331</v>
+        <v>277</v>
       </c>
       <c r="G50" s="11"/>
       <c r="H50" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>363</v>
+        <v>324</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>325</v>
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="11" t="s">
@@ -4728,7 +5471,7 @@
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
     </row>
-    <row r="51" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:14" ht="108" x14ac:dyDescent="0.15">
       <c r="B51" s="11" t="s">
         <v>288</v>
       </c>
@@ -4742,14 +5485,14 @@
         <v>48</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>331</v>
+        <v>277</v>
       </c>
       <c r="G51" s="11"/>
       <c r="H51" s="12" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11" t="s">
@@ -4759,11 +5502,9 @@
         <v>160</v>
       </c>
       <c r="M51" s="11"/>
-      <c r="N51" s="11" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" spans="2:14" ht="135" x14ac:dyDescent="0.15">
       <c r="B52" s="11" t="s">
         <v>289</v>
       </c>
@@ -4777,14 +5518,16 @@
         <v>48</v>
       </c>
       <c r="F52" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="G52" s="11"/>
+        <v>277</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>398</v>
+      </c>
       <c r="H52" s="12" t="s">
-        <v>375</v>
+        <v>400</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="11" t="s">
@@ -4796,7 +5539,7 @@
       <c r="M52" s="11"/>
       <c r="N52" s="11"/>
     </row>
-    <row r="53" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:14" ht="135" x14ac:dyDescent="0.15">
       <c r="B53" s="11" t="s">
         <v>290</v>
       </c>
@@ -4810,14 +5553,16 @@
         <v>48</v>
       </c>
       <c r="F53" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="G53" s="11"/>
+        <v>277</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>398</v>
+      </c>
       <c r="H53" s="12" t="s">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="11" t="s">
@@ -4829,7 +5574,7 @@
       <c r="M53" s="11"/>
       <c r="N53" s="11"/>
     </row>
-    <row r="54" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:14" ht="135" x14ac:dyDescent="0.15">
       <c r="B54" s="11" t="s">
         <v>291</v>
       </c>
@@ -4843,14 +5588,16 @@
         <v>48</v>
       </c>
       <c r="F54" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="G54" s="11"/>
+        <v>277</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>402</v>
+      </c>
       <c r="H54" s="12" t="s">
-        <v>341</v>
+        <v>403</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>342</v>
+        <v>399</v>
       </c>
       <c r="J54" s="11"/>
       <c r="K54" s="11" t="s">
@@ -4860,11 +5607,9 @@
         <v>160</v>
       </c>
       <c r="M54" s="11"/>
-      <c r="N54" s="11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="55" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="N54" s="11"/>
+    </row>
+    <row r="55" spans="2:14" ht="135" x14ac:dyDescent="0.15">
       <c r="B55" s="11" t="s">
         <v>292</v>
       </c>
@@ -4878,14 +5623,16 @@
         <v>48</v>
       </c>
       <c r="F55" s="12" t="s">
-        <v>340</v>
-      </c>
-      <c r="G55" s="11"/>
+        <v>277</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>402</v>
+      </c>
       <c r="H55" s="12" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="I55" s="12" t="s">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="11" t="s">
@@ -4911,14 +5658,14 @@
         <v>48</v>
       </c>
       <c r="F56" s="12" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="G56" s="11"/>
       <c r="H56" s="12" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="I56" s="12" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="11" t="s">
@@ -4930,7 +5677,7 @@
       <c r="M56" s="11"/>
       <c r="N56" s="11"/>
     </row>
-    <row r="57" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B57" s="11" t="s">
         <v>294</v>
       </c>
@@ -4944,15 +5691,16 @@
         <v>48</v>
       </c>
       <c r="F57" s="12" t="s">
-        <v>367</v>
+        <v>327</v>
       </c>
       <c r="G57" s="11"/>
       <c r="H57" s="12" t="s">
-        <v>368</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>369</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="I57" s="20" t="s">
+        <v>333</v>
+      </c>
+      <c r="J57" s="11"/>
       <c r="K57" s="11" t="s">
         <v>159</v>
       </c>
@@ -4960,10 +5708,12 @@
         <v>160</v>
       </c>
       <c r="M57" s="11"/>
-      <c r="N57" s="21"/>
+      <c r="N57" s="11"/>
     </row>
     <row r="58" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B58" s="11"/>
+      <c r="B58" s="11" t="s">
+        <v>295</v>
+      </c>
       <c r="C58" s="11" t="s">
         <v>240</v>
       </c>
@@ -4974,22 +5724,29 @@
         <v>48</v>
       </c>
       <c r="F58" s="12" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="G58" s="11"/>
       <c r="H58" s="12" t="s">
-        <v>388</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>389</v>
-      </c>
-      <c r="K58" s="11"/>
-      <c r="L58" s="11"/>
+        <v>351</v>
+      </c>
+      <c r="I58" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L58" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M58" s="11"/>
-      <c r="N58" s="21"/>
+      <c r="N58" s="11"/>
     </row>
     <row r="59" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B59" s="11"/>
+      <c r="B59" s="11" t="s">
+        <v>296</v>
+      </c>
       <c r="C59" s="11" t="s">
         <v>240</v>
       </c>
@@ -5000,23 +5757,30 @@
         <v>48</v>
       </c>
       <c r="F59" s="12" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="G59" s="11"/>
       <c r="H59" s="12" t="s">
-        <v>390</v>
+        <v>352</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>391</v>
-      </c>
-      <c r="K59" s="11"/>
-      <c r="L59" s="11"/>
+        <v>353</v>
+      </c>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L59" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M59" s="11"/>
-      <c r="N59" s="21"/>
+      <c r="N59" s="11" t="s">
+        <v>354</v>
+      </c>
     </row>
     <row r="60" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B60" s="11" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>240</v>
@@ -5028,24 +5792,28 @@
         <v>48</v>
       </c>
       <c r="F60" s="12" t="s">
-        <v>387</v>
+        <v>327</v>
       </c>
       <c r="G60" s="11"/>
       <c r="H60" s="12" t="s">
-        <v>385</v>
-      </c>
-      <c r="I60" s="12" t="s">
-        <v>383</v>
+        <v>355</v>
+      </c>
+      <c r="I60" s="20" t="s">
+        <v>356</v>
       </c>
       <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-      <c r="L60" s="11"/>
+      <c r="K60" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M60" s="11"/>
       <c r="N60" s="11"/>
     </row>
     <row r="61" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B61" s="11" t="s">
-        <v>296</v>
+        <v>405</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>240</v>
@@ -5057,24 +5825,30 @@
         <v>48</v>
       </c>
       <c r="F61" s="12" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G61" s="11"/>
       <c r="H61" s="12" t="s">
-        <v>386</v>
+        <v>365</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>384</v>
+        <v>366</v>
       </c>
       <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-      <c r="L61" s="11"/>
+      <c r="K61" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L61" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M61" s="11"/>
-      <c r="N61" s="11"/>
+      <c r="N61" s="11" t="s">
+        <v>367</v>
+      </c>
     </row>
     <row r="62" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B62" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>240</v>
@@ -5086,24 +5860,28 @@
         <v>48</v>
       </c>
       <c r="F62" s="12" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G62" s="11"/>
       <c r="H62" s="12" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="I62" s="12" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-      <c r="L62" s="11"/>
+      <c r="K62" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L62" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M62" s="11"/>
       <c r="N62" s="11"/>
     </row>
-    <row r="63" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:14" ht="108" x14ac:dyDescent="0.15">
       <c r="B63" s="11" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>240</v>
@@ -5115,734 +5893,1099 @@
         <v>48</v>
       </c>
       <c r="F63" s="12" t="s">
-        <v>382</v>
+        <v>327</v>
       </c>
       <c r="G63" s="11"/>
       <c r="H63" s="12" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="I63" s="12" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="J63" s="11"/>
-      <c r="K63" s="11"/>
-      <c r="L63" s="11"/>
+      <c r="K63" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M63" s="11"/>
       <c r="N63" s="11"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="64" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B64" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="12"/>
+        <v>300</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F64" s="12" t="s">
+        <v>335</v>
+      </c>
       <c r="G64" s="11"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="12"/>
+      <c r="H64" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>337</v>
+      </c>
       <c r="J64" s="11"/>
-      <c r="K64" s="11"/>
-      <c r="L64" s="11"/>
+      <c r="K64" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M64" s="11"/>
-      <c r="N64" s="11"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="N64" s="11" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B65" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C65" s="11"/>
-      <c r="D65" s="11"/>
-      <c r="E65" s="11"/>
-      <c r="F65" s="12"/>
+        <v>301</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D65" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E65" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>335</v>
+      </c>
       <c r="G65" s="11"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="12"/>
+      <c r="H65" s="12" t="s">
+        <v>339</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>340</v>
+      </c>
       <c r="J65" s="11"/>
-      <c r="K65" s="11"/>
-      <c r="L65" s="11"/>
+      <c r="K65" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L65" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M65" s="11"/>
       <c r="N65" s="11"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B66" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="C66" s="11"/>
-      <c r="D66" s="11"/>
-      <c r="E66" s="11"/>
-      <c r="F66" s="12"/>
+        <v>302</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E66" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F66" s="12" t="s">
+        <v>335</v>
+      </c>
       <c r="G66" s="11"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="12"/>
+      <c r="H66" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>364</v>
+      </c>
       <c r="J66" s="11"/>
-      <c r="K66" s="11"/>
-      <c r="L66" s="11"/>
+      <c r="K66" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L66" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M66" s="11"/>
       <c r="N66" s="11"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="67" spans="2:14" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B67" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C67" s="11"/>
-      <c r="D67" s="11"/>
-      <c r="E67" s="11"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="11"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="12"/>
-      <c r="J67" s="11"/>
-      <c r="K67" s="11"/>
-      <c r="L67" s="11"/>
+        <v>303</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E67" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="J67" s="31"/>
+      <c r="K67" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L67" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M67" s="11"/>
       <c r="N67" s="11"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="68" spans="2:14" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B68" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
-      <c r="F68" s="12"/>
-      <c r="G68" s="11"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="12"/>
-      <c r="J68" s="11"/>
-      <c r="K68" s="11"/>
-      <c r="L68" s="11"/>
+        <v>304</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E68" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="J68" s="31"/>
+      <c r="K68" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L68" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M68" s="11"/>
       <c r="N68" s="11"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="69" spans="2:14" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B69" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11"/>
-      <c r="F69" s="12"/>
-      <c r="G69" s="11"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="12"/>
-      <c r="J69" s="11"/>
-      <c r="K69" s="11"/>
-      <c r="L69" s="11"/>
+        <v>305</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F69" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="J69" s="31"/>
+      <c r="K69" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L69" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M69" s="11"/>
       <c r="N69" s="11"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:14" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B70" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11"/>
-      <c r="F70" s="12"/>
-      <c r="G70" s="11"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="12"/>
-      <c r="J70" s="11"/>
-      <c r="K70" s="11"/>
-      <c r="L70" s="11"/>
+        <v>306</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E70" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="J70" s="31"/>
+      <c r="K70" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M70" s="11"/>
       <c r="N70" s="11"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="71" spans="2:14" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B71" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="C71" s="11"/>
-      <c r="D71" s="11"/>
-      <c r="E71" s="11"/>
-      <c r="F71" s="12"/>
-      <c r="G71" s="11"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="12"/>
-      <c r="J71" s="11"/>
-      <c r="K71" s="11"/>
-      <c r="L71" s="11"/>
+        <v>307</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E71" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F71" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="J71" s="31"/>
+      <c r="K71" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L71" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M71" s="11"/>
       <c r="N71" s="11"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="72" spans="2:14" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B72" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="C72" s="11"/>
-      <c r="D72" s="11"/>
-      <c r="E72" s="11"/>
-      <c r="F72" s="12"/>
-      <c r="G72" s="11"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="12"/>
-      <c r="J72" s="11"/>
-      <c r="K72" s="11"/>
-      <c r="L72" s="11"/>
+        <v>308</v>
+      </c>
+      <c r="C72" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F72" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="J72" s="31"/>
+      <c r="K72" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L72" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M72" s="11"/>
       <c r="N72" s="11"/>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="73" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B73" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="C73" s="11"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="11"/>
-      <c r="F73" s="12"/>
+        <v>309</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F73" s="12" t="s">
+        <v>360</v>
+      </c>
       <c r="G73" s="11"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="12"/>
-      <c r="J73" s="11"/>
-      <c r="K73" s="11"/>
-      <c r="L73" s="11"/>
+      <c r="H73" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="K73" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L73" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M73" s="11"/>
-      <c r="N73" s="11"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="N73" s="21"/>
+    </row>
+    <row r="74" spans="2:14" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B74" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
-      <c r="E74" s="11"/>
-      <c r="F74" s="12"/>
-      <c r="G74" s="11"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="12"/>
-      <c r="J74" s="11"/>
-      <c r="K74" s="11"/>
-      <c r="L74" s="11"/>
+        <v>310</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F74" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="K74" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L74" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M74" s="11"/>
-      <c r="N74" s="11"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="N74" s="21"/>
+    </row>
+    <row r="75" spans="2:14" ht="121.5" x14ac:dyDescent="0.15">
       <c r="B75" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11"/>
-      <c r="F75" s="12"/>
-      <c r="G75" s="11"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="12"/>
-      <c r="J75" s="11"/>
-      <c r="K75" s="11"/>
-      <c r="L75" s="11"/>
+        <v>311</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E75" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F75" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="K75" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L75" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M75" s="11"/>
-      <c r="N75" s="11"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="N75" s="21"/>
+    </row>
+    <row r="76" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B76" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="12"/>
+        <v>312</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E76" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>377</v>
+      </c>
       <c r="G76" s="11"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="12"/>
-      <c r="J76" s="11"/>
-      <c r="K76" s="11"/>
-      <c r="L76" s="11"/>
+      <c r="H76" s="12" t="s">
+        <v>378</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M76" s="11"/>
-      <c r="N76" s="11"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="N76" s="21"/>
+    </row>
+    <row r="77" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B77" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="C77" s="11"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-      <c r="F77" s="12"/>
+        <v>313</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E77" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>377</v>
+      </c>
       <c r="G77" s="11"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="12"/>
-      <c r="J77" s="11"/>
-      <c r="K77" s="11"/>
-      <c r="L77" s="11"/>
+      <c r="H77" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="K77" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L77" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M77" s="11"/>
-      <c r="N77" s="11"/>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.15">
+      <c r="N77" s="21"/>
+    </row>
+    <row r="78" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B78" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="C78" s="11"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
-      <c r="F78" s="12"/>
+        <v>314</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>377</v>
+      </c>
       <c r="G78" s="11"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="12"/>
+      <c r="H78" s="12" t="s">
+        <v>375</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>373</v>
+      </c>
       <c r="J78" s="11"/>
-      <c r="K78" s="11"/>
-      <c r="L78" s="11"/>
+      <c r="K78" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M78" s="11"/>
       <c r="N78" s="11"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B79" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="12"/>
+        <v>315</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>372</v>
+      </c>
       <c r="G79" s="11"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="12"/>
+      <c r="H79" s="12" t="s">
+        <v>376</v>
+      </c>
+      <c r="I79" s="12" t="s">
+        <v>374</v>
+      </c>
       <c r="J79" s="11"/>
-      <c r="K79" s="11"/>
-      <c r="L79" s="11"/>
+      <c r="K79" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L79" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M79" s="11"/>
       <c r="N79" s="11"/>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="80" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B80" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="C80" s="11"/>
-      <c r="D80" s="11"/>
-      <c r="E80" s="11"/>
-      <c r="F80" s="12"/>
+        <v>316</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>372</v>
+      </c>
       <c r="G80" s="11"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="12"/>
+      <c r="H80" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="I80" s="12" t="s">
+        <v>383</v>
+      </c>
       <c r="J80" s="11"/>
-      <c r="K80" s="11"/>
-      <c r="L80" s="11"/>
+      <c r="K80" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L80" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M80" s="11"/>
       <c r="N80" s="11"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="81" spans="2:14" ht="81" x14ac:dyDescent="0.15">
       <c r="B81" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="C81" s="11"/>
-      <c r="D81" s="11"/>
-      <c r="E81" s="11"/>
-      <c r="F81" s="12"/>
+        <v>317</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E81" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>372</v>
+      </c>
       <c r="G81" s="11"/>
-      <c r="H81" s="11"/>
-      <c r="I81" s="12"/>
+      <c r="H81" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="I81" s="12" t="s">
+        <v>385</v>
+      </c>
       <c r="J81" s="11"/>
-      <c r="K81" s="11"/>
-      <c r="L81" s="11"/>
+      <c r="K81" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L81" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M81" s="11"/>
       <c r="N81" s="11"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="82" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
       <c r="B82" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C82" s="11"/>
-      <c r="D82" s="11"/>
-      <c r="E82" s="11"/>
-      <c r="F82" s="12"/>
+        <v>318</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E82" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>416</v>
+      </c>
       <c r="G82" s="11"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="12"/>
+      <c r="H82" s="12" t="s">
+        <v>417</v>
+      </c>
+      <c r="I82" s="12" t="s">
+        <v>418</v>
+      </c>
       <c r="J82" s="11"/>
-      <c r="K82" s="11"/>
-      <c r="L82" s="11"/>
+      <c r="K82" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L82" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M82" s="11"/>
       <c r="N82" s="11"/>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="83" spans="2:14" ht="108" x14ac:dyDescent="0.15">
       <c r="B83" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C83" s="11"/>
-      <c r="D83" s="11"/>
-      <c r="E83" s="11"/>
-      <c r="F83" s="12"/>
+        <v>319</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E83" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>416</v>
+      </c>
       <c r="G83" s="11"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="12"/>
+      <c r="H83" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>426</v>
+      </c>
       <c r="J83" s="11"/>
-      <c r="K83" s="11"/>
-      <c r="L83" s="11"/>
+      <c r="K83" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L83" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M83" s="11"/>
       <c r="N83" s="11"/>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="84" spans="2:14" ht="108" x14ac:dyDescent="0.15">
       <c r="B84" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="C84" s="11"/>
-      <c r="D84" s="11"/>
-      <c r="E84" s="11"/>
-      <c r="F84" s="12"/>
+        <v>320</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E84" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>416</v>
+      </c>
       <c r="G84" s="11"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="12"/>
+      <c r="H84" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="I84" s="12" t="s">
+        <v>423</v>
+      </c>
       <c r="J84" s="11"/>
-      <c r="K84" s="11"/>
-      <c r="L84" s="11"/>
+      <c r="K84" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L84" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M84" s="11"/>
       <c r="N84" s="11"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="85" spans="2:14" ht="108" x14ac:dyDescent="0.15">
       <c r="B85" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="12"/>
+        <v>321</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E85" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>416</v>
+      </c>
       <c r="G85" s="11"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="12"/>
+      <c r="H85" s="12" t="s">
+        <v>420</v>
+      </c>
+      <c r="I85" s="12" t="s">
+        <v>421</v>
+      </c>
       <c r="J85" s="11"/>
-      <c r="K85" s="11"/>
-      <c r="L85" s="11"/>
+      <c r="K85" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L85" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M85" s="11"/>
       <c r="N85" s="11"/>
     </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="86" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B86" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="C86" s="11"/>
-      <c r="D86" s="11"/>
-      <c r="E86" s="11"/>
-      <c r="F86" s="12"/>
+        <v>322</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E86" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>424</v>
+      </c>
       <c r="G86" s="11"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="12"/>
+      <c r="H86" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="I86" s="12" t="s">
+        <v>427</v>
+      </c>
       <c r="J86" s="11"/>
-      <c r="K86" s="11"/>
-      <c r="L86" s="11"/>
+      <c r="K86" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L86" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M86" s="11"/>
       <c r="N86" s="11"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.15">
+    <row r="87" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B87" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C87" s="11"/>
-      <c r="D87" s="11"/>
-      <c r="E87" s="11"/>
-      <c r="F87" s="12"/>
+        <v>323</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D87" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E87" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>424</v>
+      </c>
       <c r="G87" s="11"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="12"/>
+      <c r="H87" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="I87" s="12" t="s">
+        <v>429</v>
+      </c>
       <c r="J87" s="11"/>
-      <c r="K87" s="11"/>
-      <c r="L87" s="11"/>
+      <c r="K87" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L87" s="11" t="s">
+        <v>160</v>
+      </c>
       <c r="M87" s="11"/>
       <c r="N87" s="11"/>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B88" s="11" t="s">
-        <v>322</v>
-      </c>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="11"/>
-      <c r="H88" s="11"/>
-      <c r="I88" s="12"/>
-      <c r="J88" s="11"/>
-      <c r="K88" s="11"/>
-      <c r="L88" s="11"/>
-      <c r="M88" s="11"/>
-      <c r="N88" s="11"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B89" s="11" t="s">
-        <v>323</v>
-      </c>
-      <c r="C89" s="11"/>
-      <c r="D89" s="11"/>
-      <c r="E89" s="11"/>
-      <c r="F89" s="12"/>
-      <c r="G89" s="11"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="12"/>
-      <c r="J89" s="11"/>
-      <c r="K89" s="11"/>
-      <c r="L89" s="11"/>
-      <c r="M89" s="11"/>
-      <c r="N89" s="11"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B90" s="11" t="s">
-        <v>324</v>
-      </c>
-      <c r="C90" s="11"/>
-      <c r="D90" s="11"/>
-      <c r="E90" s="11"/>
-      <c r="F90" s="12"/>
-      <c r="G90" s="11"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="12"/>
-      <c r="J90" s="11"/>
-      <c r="K90" s="11"/>
-      <c r="L90" s="11"/>
-      <c r="M90" s="11"/>
-      <c r="N90" s="11"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B91" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C91" s="11"/>
-      <c r="D91" s="11"/>
-      <c r="E91" s="11"/>
-      <c r="F91" s="12"/>
-      <c r="G91" s="11"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="12"/>
-      <c r="J91" s="11"/>
-      <c r="K91" s="11"/>
-      <c r="L91" s="11"/>
-      <c r="M91" s="11"/>
-      <c r="N91" s="11"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B92" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C92" s="11"/>
-      <c r="D92" s="11"/>
-      <c r="E92" s="11"/>
-      <c r="F92" s="12"/>
-      <c r="G92" s="11"/>
-      <c r="H92" s="11"/>
-      <c r="I92" s="12"/>
-      <c r="J92" s="11"/>
-      <c r="K92" s="11"/>
-      <c r="L92" s="11"/>
-      <c r="M92" s="11"/>
-      <c r="N92" s="11"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B93" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C93" s="11"/>
-      <c r="D93" s="11"/>
-      <c r="E93" s="11"/>
-      <c r="F93" s="12"/>
-      <c r="G93" s="11"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="12"/>
-      <c r="J93" s="11"/>
-      <c r="K93" s="11"/>
-      <c r="L93" s="11"/>
-      <c r="M93" s="11"/>
-      <c r="N93" s="11"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B94" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="C94" s="11"/>
-      <c r="D94" s="11"/>
-      <c r="E94" s="11"/>
-      <c r="F94" s="12"/>
-      <c r="G94" s="11"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="12"/>
-      <c r="J94" s="11"/>
-      <c r="K94" s="11"/>
-      <c r="L94" s="11"/>
-      <c r="M94" s="11"/>
-      <c r="N94" s="11"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B95" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="C95" s="11"/>
-      <c r="D95" s="11"/>
-      <c r="E95" s="11"/>
-      <c r="F95" s="12"/>
-      <c r="G95" s="11"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="12"/>
-      <c r="J95" s="11"/>
-      <c r="K95" s="11"/>
-      <c r="L95" s="11"/>
-      <c r="M95" s="11"/>
-      <c r="N95" s="11"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B96" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="12"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="12"/>
-      <c r="J96" s="11"/>
-      <c r="K96" s="11"/>
-      <c r="L96" s="11"/>
-      <c r="M96" s="11"/>
-      <c r="N96" s="11"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B97" s="11" t="s">
-        <v>379</v>
-      </c>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="12"/>
-      <c r="G97" s="11"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="12"/>
-      <c r="J97" s="11"/>
-      <c r="K97" s="11"/>
-      <c r="L97" s="11"/>
-      <c r="M97" s="11"/>
-      <c r="N97" s="11"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B98" s="11" t="s">
-        <v>380</v>
-      </c>
-      <c r="C98" s="11"/>
-      <c r="D98" s="11"/>
-      <c r="E98" s="11"/>
-      <c r="F98" s="12"/>
-      <c r="G98" s="11"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="12"/>
-      <c r="J98" s="11"/>
-      <c r="K98" s="11"/>
-      <c r="L98" s="11"/>
-      <c r="M98" s="11"/>
-      <c r="N98" s="11"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B99" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="C99" s="11"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="11"/>
-      <c r="F99" s="12"/>
-      <c r="G99" s="11"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="12"/>
-      <c r="J99" s="11"/>
-      <c r="K99" s="11"/>
-      <c r="L99" s="11"/>
-      <c r="M99" s="11"/>
-      <c r="N99" s="11"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B100" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="C100" s="11"/>
-      <c r="D100" s="11"/>
-      <c r="E100" s="11"/>
-      <c r="F100" s="12"/>
-      <c r="G100" s="11"/>
-      <c r="H100" s="11"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="11"/>
-      <c r="K100" s="11"/>
-      <c r="L100" s="11"/>
-      <c r="M100" s="11"/>
-      <c r="N100" s="11"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B101" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c r="F101" s="12"/>
-      <c r="G101" s="11"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="12"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="11"/>
-      <c r="L101" s="11"/>
-      <c r="M101" s="11"/>
-      <c r="N101" s="11"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B102" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C102" s="11"/>
-      <c r="D102" s="11"/>
-      <c r="E102" s="11"/>
-      <c r="F102" s="12"/>
-      <c r="G102" s="11"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="12"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="11"/>
-      <c r="L102" s="11"/>
-      <c r="M102" s="11"/>
-      <c r="N102" s="11"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B103" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="11"/>
-      <c r="F103" s="12"/>
-      <c r="G103" s="11"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="12"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="11"/>
-      <c r="L103" s="11"/>
-      <c r="M103" s="11"/>
-      <c r="N103" s="11"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B104" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="C104" s="11"/>
-      <c r="D104" s="11"/>
-      <c r="E104" s="11"/>
-      <c r="F104" s="12"/>
-      <c r="G104" s="11"/>
-      <c r="H104" s="11"/>
-      <c r="I104" s="12"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="11"/>
-      <c r="L104" s="11"/>
-      <c r="M104" s="11"/>
-      <c r="N104" s="11"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="13"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="13"/>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B105" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="11"/>
-      <c r="F105" s="12"/>
-      <c r="G105" s="11"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="12"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="11"/>
-      <c r="L105" s="11"/>
-      <c r="M105" s="11"/>
-      <c r="N105" s="11"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="13"/>
     </row>
     <row r="106" spans="2:14" x14ac:dyDescent="0.15">
       <c r="B106" s="13"/>
@@ -5934,277 +7077,8 @@
       <c r="M111" s="13"/>
       <c r="N111" s="13"/>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="13"/>
-      <c r="F112" s="13"/>
-      <c r="G112" s="13"/>
-      <c r="H112" s="13"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="13"/>
-      <c r="K112" s="13"/>
-      <c r="L112" s="13"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="13"/>
-    </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="13"/>
-      <c r="F113" s="13"/>
-      <c r="G113" s="13"/>
-      <c r="H113" s="13"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="13"/>
-      <c r="K113" s="13"/>
-      <c r="L113" s="13"/>
-      <c r="M113" s="13"/>
-      <c r="N113" s="13"/>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="13"/>
-      <c r="F114" s="13"/>
-      <c r="G114" s="13"/>
-      <c r="H114" s="13"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="13"/>
-      <c r="K114" s="13"/>
-      <c r="L114" s="13"/>
-      <c r="M114" s="13"/>
-      <c r="N114" s="13"/>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="13"/>
-      <c r="F115" s="13"/>
-      <c r="G115" s="13"/>
-      <c r="H115" s="13"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="13"/>
-      <c r="K115" s="13"/>
-      <c r="L115" s="13"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="13"/>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="13"/>
-      <c r="F116" s="13"/>
-      <c r="G116" s="13"/>
-      <c r="H116" s="13"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="13"/>
-      <c r="K116" s="13"/>
-      <c r="L116" s="13"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="13"/>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B117" s="13"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="13"/>
-      <c r="F117" s="13"/>
-      <c r="G117" s="13"/>
-      <c r="H117" s="13"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="13"/>
-      <c r="K117" s="13"/>
-      <c r="L117" s="13"/>
-      <c r="M117" s="13"/>
-      <c r="N117" s="13"/>
-    </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="13"/>
-      <c r="F118" s="13"/>
-      <c r="G118" s="13"/>
-      <c r="H118" s="13"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="13"/>
-      <c r="K118" s="13"/>
-      <c r="L118" s="13"/>
-      <c r="M118" s="13"/>
-      <c r="N118" s="13"/>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="13"/>
-      <c r="F119" s="13"/>
-      <c r="G119" s="13"/>
-      <c r="H119" s="13"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="13"/>
-      <c r="K119" s="13"/>
-      <c r="L119" s="13"/>
-      <c r="M119" s="13"/>
-      <c r="N119" s="13"/>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="13"/>
-      <c r="F120" s="13"/>
-      <c r="G120" s="13"/>
-      <c r="H120" s="13"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="13"/>
-      <c r="K120" s="13"/>
-      <c r="L120" s="13"/>
-      <c r="M120" s="13"/>
-      <c r="N120" s="13"/>
-    </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="13"/>
-      <c r="F121" s="13"/>
-      <c r="G121" s="13"/>
-      <c r="H121" s="13"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="13"/>
-      <c r="K121" s="13"/>
-      <c r="L121" s="13"/>
-      <c r="M121" s="13"/>
-      <c r="N121" s="13"/>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="13"/>
-      <c r="E122" s="13"/>
-      <c r="F122" s="13"/>
-      <c r="G122" s="13"/>
-      <c r="H122" s="13"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="13"/>
-      <c r="K122" s="13"/>
-      <c r="L122" s="13"/>
-      <c r="M122" s="13"/>
-      <c r="N122" s="13"/>
-    </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="13"/>
-      <c r="E123" s="13"/>
-      <c r="F123" s="13"/>
-      <c r="G123" s="13"/>
-      <c r="H123" s="13"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="13"/>
-      <c r="K123" s="13"/>
-      <c r="L123" s="13"/>
-      <c r="M123" s="13"/>
-      <c r="N123" s="13"/>
-    </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="13"/>
-      <c r="E124" s="13"/>
-      <c r="F124" s="13"/>
-      <c r="G124" s="13"/>
-      <c r="H124" s="13"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="13"/>
-      <c r="K124" s="13"/>
-      <c r="L124" s="13"/>
-      <c r="M124" s="13"/>
-      <c r="N124" s="13"/>
-    </row>
-    <row r="125" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="13"/>
-      <c r="E125" s="13"/>
-      <c r="F125" s="13"/>
-      <c r="G125" s="13"/>
-      <c r="H125" s="13"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="13"/>
-      <c r="K125" s="13"/>
-      <c r="L125" s="13"/>
-      <c r="M125" s="13"/>
-      <c r="N125" s="13"/>
-    </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="13"/>
-      <c r="E126" s="13"/>
-      <c r="F126" s="13"/>
-      <c r="G126" s="13"/>
-      <c r="H126" s="13"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="13"/>
-      <c r="K126" s="13"/>
-      <c r="L126" s="13"/>
-      <c r="M126" s="13"/>
-      <c r="N126" s="13"/>
-    </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="13"/>
-      <c r="E127" s="13"/>
-      <c r="F127" s="13"/>
-      <c r="G127" s="13"/>
-      <c r="H127" s="13"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="13"/>
-      <c r="K127" s="13"/>
-      <c r="L127" s="13"/>
-      <c r="M127" s="13"/>
-      <c r="N127" s="13"/>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="13"/>
-      <c r="E128" s="13"/>
-      <c r="F128" s="13"/>
-      <c r="G128" s="13"/>
-      <c r="H128" s="13"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="13"/>
-      <c r="K128" s="13"/>
-      <c r="L128" s="13"/>
-      <c r="M128" s="13"/>
-      <c r="N128" s="13"/>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.15">
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="13"/>
-      <c r="E129" s="13"/>
-      <c r="F129" s="13"/>
-      <c r="G129" s="13"/>
-      <c r="H129" s="13"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="13"/>
-      <c r="K129" s="13"/>
-      <c r="L129" s="13"/>
-      <c r="M129" s="13"/>
-      <c r="N129" s="13"/>
-    </row>
   </sheetData>
+  <autoFilter ref="B5:N87"/>
   <mergeCells count="4">
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
@@ -6213,16 +7087,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C87">
       <formula1>"模板管理/文档管理,模板管理/参数管理"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E87">
       <formula1>"高,中,低"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D87">
       <formula1>"功能测试,用户界面测试,用户体验测试,容错性测试,其他测试"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K105">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K87">
       <formula1>"未测试,通过,不通过,不适用"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6233,11 +7107,2168 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:N152"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.625" style="10" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="11" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="21.375" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+    </row>
+    <row r="3" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+    </row>
+    <row r="5" spans="2:14" s="2" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="54" x14ac:dyDescent="0.15">
+      <c r="B6" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="G6" s="11"/>
+      <c r="H6" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B7" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B9" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B10" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11"/>
+    </row>
+    <row r="11" spans="2:14" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B11" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+      <c r="B12" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>443</v>
+      </c>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L12" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+      <c r="B13" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
+    </row>
+    <row r="15" spans="2:14" ht="54" x14ac:dyDescent="0.15">
+      <c r="B15" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12" t="s">
+        <v>487</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+    </row>
+    <row r="17" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12" t="s">
+        <v>464</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12" t="s">
+        <v>467</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>468</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>469</v>
+      </c>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12" t="s">
+        <v>488</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>470</v>
+      </c>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="2:14" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>471</v>
+      </c>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="12"/>
+    </row>
+    <row r="21" spans="2:14" ht="108" x14ac:dyDescent="0.15">
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12" t="s">
+        <v>491</v>
+      </c>
+      <c r="I21" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="J21" s="11"/>
+      <c r="K21" s="11"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="11"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="J22" s="11"/>
+      <c r="K22" s="11"/>
+      <c r="L22" s="11"/>
+      <c r="M22" s="11"/>
+      <c r="N22" s="11"/>
+    </row>
+    <row r="23" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>476</v>
+      </c>
+      <c r="J23" s="11"/>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
+      <c r="M23" s="11"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="11"/>
+      <c r="L24" s="11"/>
+      <c r="M24" s="11"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="12" t="s">
+        <v>480</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>479</v>
+      </c>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12" t="s">
+        <v>481</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>484</v>
+      </c>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="2:14" ht="81" x14ac:dyDescent="0.15">
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12" t="s">
+        <v>485</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+    </row>
+    <row r="29" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="12"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="12"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="12"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="12"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+    </row>
+    <row r="35" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+    </row>
+    <row r="41" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+    </row>
+    <row r="43" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+    </row>
+    <row r="44" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+    </row>
+    <row r="45" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="11"/>
+      <c r="L45" s="11"/>
+      <c r="M45" s="11"/>
+      <c r="N45" s="11"/>
+    </row>
+    <row r="46" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="11"/>
+      <c r="L46" s="11"/>
+      <c r="M46" s="11"/>
+      <c r="N46" s="11"/>
+    </row>
+    <row r="47" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="12"/>
+      <c r="H47" s="12"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="11"/>
+      <c r="L47" s="11"/>
+      <c r="M47" s="11"/>
+      <c r="N47" s="11"/>
+    </row>
+    <row r="48" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="12"/>
+      <c r="H48" s="12"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="11"/>
+      <c r="L48" s="11"/>
+      <c r="M48" s="11"/>
+      <c r="N48" s="11"/>
+    </row>
+    <row r="49" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="12"/>
+      <c r="H49" s="12"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="11"/>
+      <c r="L49" s="11"/>
+      <c r="M49" s="11"/>
+      <c r="N49" s="11"/>
+    </row>
+    <row r="50" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="12"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="11"/>
+      <c r="L50" s="11"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
+    </row>
+    <row r="51" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="11"/>
+      <c r="L51" s="11"/>
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="12"/>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+    </row>
+    <row r="53" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="11"/>
+      <c r="L53" s="11"/>
+      <c r="M53" s="11"/>
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="11"/>
+      <c r="L54" s="11"/>
+      <c r="M54" s="11"/>
+      <c r="N54" s="11"/>
+    </row>
+    <row r="55" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="11"/>
+      <c r="L55" s="11"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+    </row>
+    <row r="56" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="11"/>
+      <c r="L56" s="11"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
+    </row>
+    <row r="57" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+    </row>
+    <row r="58" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="11"/>
+      <c r="E58" s="11"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="11"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="11"/>
+      <c r="L58" s="11"/>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+    </row>
+    <row r="59" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="11"/>
+      <c r="E59" s="11"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="11"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11"/>
+      <c r="L59" s="11"/>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+    </row>
+    <row r="60" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="11"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="11"/>
+      <c r="L60" s="11"/>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+    </row>
+    <row r="61" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="11"/>
+      <c r="E61" s="11"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="11"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="11"/>
+      <c r="L61" s="11"/>
+      <c r="M61" s="11"/>
+      <c r="N61" s="11"/>
+    </row>
+    <row r="62" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="12"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="12"/>
+      <c r="I62" s="12"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+    </row>
+    <row r="63" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="11"/>
+      <c r="E63" s="11"/>
+      <c r="F63" s="12"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="12"/>
+      <c r="I63" s="12"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+    </row>
+    <row r="64" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="11"/>
+      <c r="E64" s="11"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="12"/>
+      <c r="I64" s="12"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+    </row>
+    <row r="65" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="11"/>
+      <c r="E65" s="11"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="12"/>
+      <c r="I65" s="12"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+    </row>
+    <row r="66" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="11"/>
+      <c r="E66" s="11"/>
+      <c r="F66" s="12"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="12"/>
+      <c r="I66" s="12"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+    </row>
+    <row r="67" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="12"/>
+      <c r="G67" s="12"/>
+      <c r="H67" s="12"/>
+      <c r="I67" s="12"/>
+      <c r="J67" s="31"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+    </row>
+    <row r="68" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="11"/>
+      <c r="E68" s="11"/>
+      <c r="F68" s="12"/>
+      <c r="G68" s="12"/>
+      <c r="H68" s="12"/>
+      <c r="I68" s="12"/>
+      <c r="J68" s="31"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+    </row>
+    <row r="69" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
+      <c r="F69" s="12"/>
+      <c r="G69" s="12"/>
+      <c r="H69" s="12"/>
+      <c r="I69" s="12"/>
+      <c r="J69" s="31"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+    </row>
+    <row r="70" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11"/>
+      <c r="F70" s="12"/>
+      <c r="G70" s="12"/>
+      <c r="H70" s="12"/>
+      <c r="I70" s="12"/>
+      <c r="J70" s="31"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+    </row>
+    <row r="71" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="11"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="12"/>
+      <c r="H71" s="12"/>
+      <c r="I71" s="12"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+    </row>
+    <row r="72" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="11"/>
+      <c r="F72" s="12"/>
+      <c r="G72" s="12"/>
+      <c r="H72" s="12"/>
+      <c r="I72" s="12"/>
+      <c r="J72" s="31"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+    </row>
+    <row r="73" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="11"/>
+      <c r="F73" s="12"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="12"/>
+      <c r="I73" s="12"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="21"/>
+    </row>
+    <row r="74" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11"/>
+      <c r="F74" s="12"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="12"/>
+      <c r="I74" s="12"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="21"/>
+    </row>
+    <row r="75" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="12"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="12"/>
+      <c r="I75" s="12"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="21"/>
+    </row>
+    <row r="76" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+      <c r="F76" s="12"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="12"/>
+      <c r="I76" s="12"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="21"/>
+    </row>
+    <row r="77" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+      <c r="E77" s="11"/>
+      <c r="F77" s="12"/>
+      <c r="G77" s="11"/>
+      <c r="H77" s="12"/>
+      <c r="I77" s="12"/>
+      <c r="K77" s="11"/>
+      <c r="L77" s="11"/>
+      <c r="M77" s="11"/>
+      <c r="N77" s="21"/>
+    </row>
+    <row r="78" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="11"/>
+      <c r="H78" s="12"/>
+      <c r="I78" s="12"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="11"/>
+      <c r="L78" s="11"/>
+      <c r="M78" s="11"/>
+      <c r="N78" s="11"/>
+    </row>
+    <row r="79" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="11"/>
+      <c r="E79" s="11"/>
+      <c r="F79" s="12"/>
+      <c r="G79" s="11"/>
+      <c r="H79" s="12"/>
+      <c r="I79" s="12"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="11"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="11"/>
+      <c r="N79" s="11"/>
+    </row>
+    <row r="80" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
+      <c r="F80" s="12"/>
+      <c r="G80" s="11"/>
+      <c r="H80" s="12"/>
+      <c r="I80" s="12"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="11"/>
+      <c r="L80" s="11"/>
+      <c r="M80" s="11"/>
+      <c r="N80" s="11"/>
+    </row>
+    <row r="81" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+      <c r="F81" s="12"/>
+      <c r="G81" s="11"/>
+      <c r="H81" s="12"/>
+      <c r="I81" s="12"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="11"/>
+      <c r="L81" s="11"/>
+      <c r="M81" s="11"/>
+      <c r="N81" s="11"/>
+    </row>
+    <row r="82" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+      <c r="F82" s="12"/>
+      <c r="G82" s="11"/>
+      <c r="H82" s="12"/>
+      <c r="I82" s="12"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="11"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="11"/>
+      <c r="N82" s="11"/>
+    </row>
+    <row r="83" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="11"/>
+      <c r="E83" s="11"/>
+      <c r="F83" s="12"/>
+      <c r="G83" s="11"/>
+      <c r="H83" s="12"/>
+      <c r="I83" s="12"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="11"/>
+      <c r="L83" s="11"/>
+      <c r="M83" s="11"/>
+      <c r="N83" s="11"/>
+    </row>
+    <row r="84" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="11"/>
+      <c r="E84" s="11"/>
+      <c r="F84" s="12"/>
+      <c r="G84" s="11"/>
+      <c r="H84" s="12"/>
+      <c r="I84" s="12"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="11"/>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11"/>
+    </row>
+    <row r="85" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="12"/>
+      <c r="G85" s="11"/>
+      <c r="H85" s="12"/>
+      <c r="I85" s="12"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="11"/>
+      <c r="L85" s="11"/>
+      <c r="M85" s="11"/>
+      <c r="N85" s="11"/>
+    </row>
+    <row r="86" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="12"/>
+      <c r="G86" s="11"/>
+      <c r="H86" s="12"/>
+      <c r="I86" s="12"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="11"/>
+      <c r="L86" s="11"/>
+      <c r="M86" s="11"/>
+      <c r="N86" s="11"/>
+    </row>
+    <row r="87" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="11"/>
+      <c r="H87" s="12"/>
+      <c r="I87" s="12"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="11"/>
+      <c r="L87" s="11"/>
+      <c r="M87" s="11"/>
+      <c r="N87" s="11"/>
+    </row>
+    <row r="88" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B88" s="13"/>
+      <c r="C88" s="13"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="13"/>
+      <c r="F88" s="13"/>
+      <c r="G88" s="13"/>
+      <c r="H88" s="13"/>
+      <c r="I88" s="14"/>
+      <c r="J88" s="13"/>
+      <c r="K88" s="13"/>
+      <c r="L88" s="13"/>
+      <c r="M88" s="13"/>
+      <c r="N88" s="13"/>
+    </row>
+    <row r="89" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B89" s="13"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="13"/>
+      <c r="F89" s="13"/>
+      <c r="G89" s="13"/>
+      <c r="H89" s="13"/>
+      <c r="I89" s="14"/>
+      <c r="J89" s="13"/>
+      <c r="K89" s="13"/>
+      <c r="L89" s="13"/>
+      <c r="M89" s="13"/>
+      <c r="N89" s="13"/>
+    </row>
+    <row r="90" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B90" s="13"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="13"/>
+      <c r="F90" s="13"/>
+      <c r="G90" s="13"/>
+      <c r="H90" s="13"/>
+      <c r="I90" s="14"/>
+      <c r="J90" s="13"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="13"/>
+    </row>
+    <row r="91" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B91" s="13"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="13"/>
+      <c r="F91" s="13"/>
+      <c r="G91" s="13"/>
+      <c r="H91" s="13"/>
+      <c r="I91" s="14"/>
+      <c r="J91" s="13"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="13"/>
+    </row>
+    <row r="92" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B92" s="13"/>
+      <c r="C92" s="13"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="13"/>
+      <c r="F92" s="13"/>
+      <c r="G92" s="13"/>
+      <c r="H92" s="13"/>
+      <c r="I92" s="14"/>
+      <c r="J92" s="13"/>
+      <c r="K92" s="13"/>
+      <c r="L92" s="13"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="13"/>
+    </row>
+    <row r="93" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B93" s="13"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="13"/>
+      <c r="F93" s="13"/>
+      <c r="G93" s="13"/>
+      <c r="H93" s="13"/>
+      <c r="I93" s="14"/>
+      <c r="J93" s="13"/>
+      <c r="K93" s="13"/>
+      <c r="L93" s="13"/>
+      <c r="M93" s="13"/>
+      <c r="N93" s="13"/>
+    </row>
+    <row r="94" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B94" s="13"/>
+      <c r="C94" s="13"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="13"/>
+      <c r="F94" s="13"/>
+      <c r="G94" s="13"/>
+      <c r="H94" s="13"/>
+      <c r="I94" s="14"/>
+      <c r="J94" s="13"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="13"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="13"/>
+    </row>
+    <row r="95" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B95" s="13"/>
+      <c r="C95" s="13"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="13"/>
+      <c r="F95" s="13"/>
+      <c r="G95" s="13"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="14"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
+    </row>
+    <row r="96" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B96" s="13"/>
+      <c r="C96" s="13"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="13"/>
+      <c r="F96" s="13"/>
+      <c r="G96" s="13"/>
+      <c r="H96" s="13"/>
+      <c r="I96" s="14"/>
+      <c r="J96" s="13"/>
+      <c r="K96" s="13"/>
+      <c r="L96" s="13"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="13"/>
+    </row>
+    <row r="97" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B97" s="13"/>
+      <c r="C97" s="13"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="13"/>
+      <c r="F97" s="13"/>
+      <c r="G97" s="13"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="14"/>
+      <c r="J97" s="13"/>
+      <c r="K97" s="13"/>
+      <c r="L97" s="13"/>
+      <c r="M97" s="13"/>
+      <c r="N97" s="13"/>
+    </row>
+    <row r="98" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B98" s="13"/>
+      <c r="C98" s="13"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="13"/>
+      <c r="F98" s="13"/>
+      <c r="G98" s="13"/>
+      <c r="H98" s="13"/>
+      <c r="I98" s="14"/>
+      <c r="J98" s="13"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="13"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="13"/>
+    </row>
+    <row r="99" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B99" s="13"/>
+      <c r="C99" s="13"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13"/>
+      <c r="F99" s="13"/>
+      <c r="G99" s="13"/>
+      <c r="H99" s="13"/>
+      <c r="I99" s="14"/>
+      <c r="J99" s="13"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="13"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="13"/>
+    </row>
+    <row r="100" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B100" s="13"/>
+      <c r="C100" s="13"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="13"/>
+      <c r="F100" s="13"/>
+      <c r="G100" s="13"/>
+      <c r="H100" s="13"/>
+      <c r="I100" s="14"/>
+      <c r="J100" s="13"/>
+      <c r="K100" s="13"/>
+      <c r="L100" s="13"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="13"/>
+    </row>
+    <row r="101" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B101" s="13"/>
+      <c r="C101" s="13"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="13"/>
+      <c r="F101" s="13"/>
+      <c r="G101" s="13"/>
+      <c r="H101" s="13"/>
+      <c r="I101" s="14"/>
+      <c r="J101" s="13"/>
+      <c r="K101" s="13"/>
+      <c r="L101" s="13"/>
+      <c r="M101" s="13"/>
+      <c r="N101" s="13"/>
+    </row>
+    <row r="102" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B102" s="13"/>
+      <c r="C102" s="13"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="13"/>
+      <c r="F102" s="13"/>
+      <c r="G102" s="13"/>
+      <c r="H102" s="13"/>
+      <c r="I102" s="14"/>
+      <c r="J102" s="13"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="13"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="13"/>
+    </row>
+    <row r="103" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B103" s="13"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
+      <c r="F103" s="13"/>
+      <c r="G103" s="13"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="14"/>
+      <c r="J103" s="13"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="13"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="13"/>
+    </row>
+    <row r="104" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B104" s="13"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
+      <c r="F104" s="13"/>
+      <c r="G104" s="13"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="14"/>
+      <c r="J104" s="13"/>
+      <c r="K104" s="13"/>
+      <c r="L104" s="13"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="13"/>
+    </row>
+    <row r="105" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B105" s="13"/>
+      <c r="C105" s="13"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="13"/>
+      <c r="F105" s="13"/>
+      <c r="G105" s="13"/>
+      <c r="H105" s="13"/>
+      <c r="I105" s="14"/>
+      <c r="J105" s="13"/>
+      <c r="K105" s="13"/>
+      <c r="L105" s="13"/>
+      <c r="M105" s="13"/>
+      <c r="N105" s="13"/>
+    </row>
+    <row r="106" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B106" s="13"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13"/>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="14"/>
+      <c r="J106" s="13"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="13"/>
+    </row>
+    <row r="107" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B107" s="13"/>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13"/>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="14"/>
+      <c r="J107" s="13"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13"/>
+    </row>
+    <row r="108" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B108" s="13"/>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13"/>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="14"/>
+      <c r="J108" s="13"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="13"/>
+    </row>
+    <row r="109" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13"/>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="14"/>
+      <c r="J109" s="13"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="13"/>
+      <c r="M109" s="13"/>
+      <c r="N109" s="13"/>
+    </row>
+    <row r="110" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B110" s="13"/>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13"/>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="14"/>
+      <c r="J110" s="13"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="13"/>
+      <c r="N110" s="13"/>
+    </row>
+    <row r="111" spans="2:14" ht="13.5" x14ac:dyDescent="0.15">
+      <c r="B111" s="13"/>
+      <c r="C111" s="13"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="13"/>
+      <c r="F111" s="13"/>
+      <c r="G111" s="13"/>
+      <c r="H111" s="13"/>
+      <c r="I111" s="14"/>
+      <c r="J111" s="13"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="13"/>
+      <c r="M111" s="13"/>
+      <c r="N111" s="13"/>
+    </row>
+    <row r="112" spans="2:14" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:N2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="F4:I4"/>
+    <mergeCell ref="J4:N4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6:C87">
+      <formula1>"交易管理/产品申报登记,交易管理/产品信息导入,交易管理/预期收益型产品,交易管理/净值型产品,交易管理/结构性产品"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K6:K87">
+      <formula1>"未测试,通过,不通过,不适用"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D87">
+      <formula1>"功能测试,用户界面测试,用户体验测试,容错性测试,其他测试"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E87">
+      <formula1>"高,中,低"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:C22"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="B5" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="B6" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="B7" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="B8" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="B9" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="54" x14ac:dyDescent="0.2">
+      <c r="B19" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="148.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" ht="148.5" x14ac:dyDescent="0.2">
+      <c r="B21" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="148.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="12" t="s">
+        <v>406</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>407</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:N29"/>
   <sheetViews>
     <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6854,44 +9885,12 @@
     </row>
     <row r="28" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>366</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="B3:C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" t="s">
-        <v>260</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
